--- a/pract1/scraped/IlSole24Ore.xlsx
+++ b/pract1/scraped/IlSole24Ore.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,2174 +415,2229 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Raid israeliani sul Libano dopo pioggia di razzi e droni Hezbollah. 500mila nei rifugi</v>
+        <v>Previsioni Ue: leggera ripresa nel 2025, ma non mancano rischi per l’economia</v>
       </c>
       <c r="B2" t="str">
-        <v>https://www.ilsole24ore.com/art/guerra-ultime-notizie-hezbollah-pioggia-missili-israele-esercito-blocca-jazeera-ramallah-AFVIc73D</v>
+        <v>https://www.ilsole24ore.com/art/previsioni-ue-leggera-ripresa-2025-ma-non-mancano-rischi-l-economia-AGSQ7q9</v>
       </c>
       <c r="C2" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Biden: «Cina aggressiva, ci vuole mettere alla prova»</v>
+        <v>Borse, Europa guardinga. A Milano giù Interpump-</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.ilsole24ore.com/art/biden-cina-aggressiva-ci-vuole-mettere-prova-AFR5pA4D</v>
+        <v>https://www.ilsole24ore.com/art/borsa-l-asia-parte-mista-giappone-su-asia-giu-AG5TKg9</v>
       </c>
       <c r="C3" t="str">
-        <v>di Marco Masciaga</v>
+        <v>di Stefania Arcudi e Giorgia Colucci</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Il voto in Sri Lanka, il candidato marxista è in testa, ma l’esito resta incerto</v>
+        <v>Manovra, dal bonus casa al 50% a più fondi per il Ponte sullo Stretto: le richieste (costose) dei partiti</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.ilsole24ore.com/art/il-voto-sri-lanka-candidato-marxista-e-testa-ma-l-esito-resta-incerto-AFg1az3D</v>
+        <v>https://www.ilsole24ore.com/art/manovra-bonus-casa-50percento-piu-fondi-il-ponte-stretto-richieste-costose-partiti-AGyglo9</v>
       </c>
       <c r="C4" t="str">
-        <v>di Marco Masciaga</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Crolla una palazzina nel Napoletano: morti due bambini, estratte vive due persone</v>
+        <v>Raid israeliani su periferia Beirut dopo avviso di evacuazione. Massiccio attacco di droni russi su Odessa - Foto</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.ilsole24ore.com/art/crolla-palazzina-napoletano-persone-sotto-macerie-AFVHs93D</v>
+        <v>https://www.ilsole24ore.com/art/guaerra-ultime-notizie-raid-israeliani-periferia-beirut-avviso-evacuazione-massiccio-droni-russi-odessa-AGS5Fn9</v>
       </c>
       <c r="C5" t="str">
-        <v>di Redazione Roma</v>
+        <v>In aggiornamento</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Auto, ecco il piano dell’Italia per rinviare lo stop ai motori diesel e benzina dal 2035 -</v>
+        <v>Black Friday con meno acquisti. E a Natale 3 italiani su 10 non faranno regali</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.ilsole24ore.com/art/auto-ecco-piano-dell-italia-rinviare-stop-motori-diesel-e-benzina-2035-AF5Uq61D</v>
+        <v>https://www.ilsole24ore.com/art/black-friday-meno-acquisti-e-natale-3-italiani-10-non-faranno-regali-AGE1Ko9</v>
       </c>
       <c r="C6" t="str">
-        <v>di Carmine Fotina</v>
+        <v>In aggiornamento</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Traversara devastata da acqua e incuria: «In due estati non hanno fatto nulla» -</v>
+        <v>Auto dell’anno 2025, le sette finaliste: elettriche o ibride. Nessuna cinese</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.ilsole24ore.com/art/traversara-devastata-acqua-e-incuria-in-due-estati-non-hanno-fatto-nulla-AFPo6U3D</v>
+        <v>https://www.ilsole24ore.com/art/auto-dell-anno-2025-sette-finaliste-elettriche-o-ibride-nessuna-cinese-AG3rqA9</v>
       </c>
       <c r="C7" t="str">
-        <v>dal nostro inviato Luca Benecchi</v>
+        <v>di Corrado Canali</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Addio alla conduttrice Tv Paola Marella</v>
+        <v>Bonus mobili, un anno di proroga per lo sgravio del 50% su elettrodomestici e arredi</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.ilsole24ore.com/art/addio-conduttrice-tv-paola-marella-AFZXJ93D</v>
+        <v>https://24plus.ilsole24ore.com/art/bonus-mobili-cosi-anno-proroga-lo-sgravio-50percento-elettrodomestici-e-arredi-AGrzMwq?s=hpf</v>
       </c>
       <c r="C8" t="str">
-        <v>di Carmine Fotina</v>
+        <v>di Marco Zandonà</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>«Alma» di Federica Manzon vince il premio Campiello</v>
+        <v>Autonomia, conti pubblici a rischio senza standard di spesa</v>
       </c>
       <c r="B9" t="str">
-        <v>https://www.ilsole24ore.com/art/alma-federica-manzon-vince-premio-campiello-AFmjnW3D</v>
+        <v>https://24plus.ilsole24ore.com/art/autonomia-conti-pubblici-rischio-senza-standard-spesa-AGVGM98?s=hpf</v>
       </c>
       <c r="C9" t="str">
-        <v>di Lara Ricci</v>
+        <v>di Gianni Trovati</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Poste, così sarà la privatizzazione: azioni in vendita sulla App</v>
+        <v>Case green, i primi obiettivi della direttiva partono già dal 2025. Ecco cosa cambia</v>
       </c>
       <c r="B10" t="str">
-        <v>https://24plus.ilsole24ore.com/art/poste-cosi-sara-privatizzazione-azioni-vendita-app-AF5VPP3D?s=hpf</v>
+        <v>https://24plus.ilsole24ore.com/art/case-green-primi-obiettivi-direttiva-partono-gia-2025-ecco-cosa-cambia-AGZGLMu?s=hpf</v>
       </c>
       <c r="C10" t="str">
-        <v>di Laura Serafini</v>
+        <v>di Giuseppe Latour e Giocanni Parente</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Auto elettriche, valore residuo e investimenti: chi rischia di più?</v>
+        <v>Conti corrente, così i mini-tassi «costano» 700 euro a famiglia</v>
       </c>
       <c r="B11" t="str">
-        <v>https://24plus.ilsole24ore.com/art/auto-elettriche-valore-residuo-e-investimenti-chi-rischia-piu-AF5ru51D?s=hpf</v>
+        <v>https://24plus.ilsole24ore.com/art/conti-corrente-cosi-mini-tassi-costano-700-euro-famiglia-AGE0od8?s=hpf</v>
       </c>
       <c r="C11" t="str">
-        <v>di Alberto Annicchiarico</v>
+        <v>di Maximilian Cellino</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Borsa, così Moncler perde Grinta e diventa più contendibile</v>
+        <v>La straordinaria forza della manifattura italiana nell’Eurozona</v>
       </c>
       <c r="B12" t="str">
-        <v>https://24plus.ilsole24ore.com/art/borsa-cosi-moncler-perde-grinta-e-diventa-piu-contendibile-AFGzP80D?s=hpf</v>
+        <v>https://24plus.ilsole24ore.com/art/la-straordinaria-forza-manifattura-italiana-nell-eurozona-AG1rBB7?s=hpf</v>
       </c>
       <c r="C12" t="str">
-        <v>di Alessandro Graziani</v>
+        <v>di Marco Fortis</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Lavoro, le nuove carriere nella Pa: dirigenti anche senza concorso</v>
+        <v>Trump nomina l’antivax Robert Kennedy Jr alla Sanità -</v>
       </c>
       <c r="B13" t="str">
-        <v>https://24plus.ilsole24ore.com/art/lavoro-nuove-carriere-pa-dirigenti-anche-senza-concorso-AFXukM2D?s=hpf</v>
+        <v>https://www.ilsole24ore.com/art/trump-nomina-l-antivax-robert-kennedy-jr-sanita-AGx64M9</v>
       </c>
       <c r="C13" t="str">
-        <v>di Gianni Trovati</v>
+        <v>di Marco Valsania e Luca Veronese</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Lavoro, oltre 1 milione di dimissioni in Italia: ecco perché</v>
+        <v>Musk cerca persone con alto QI per lavorare gratis ai tagli di spesa -</v>
       </c>
       <c r="B14" t="str">
-        <v>https://24plus.ilsole24ore.com/art/lavoro-oltre-1-milione-dimissioni-italia-ecco-perche-AFwYLA2D?s=hpf</v>
+        <v>https://www.ilsole24ore.com/art/musk-cerca-persone-alto-qi-lavorare-gratis-tagli-spesa-AGUtor9</v>
       </c>
       <c r="C14" t="str">
-        <v>di Giorgio Pogliotti</v>
+        <v>di Marco Valsania e Luca Veronese</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Caso Sangiuliano, Maria Rosaria Boccia indagata. Sequestrati telefono, pc e occhiali spia</v>
+        <v>M5s, pubblicati i quesiti da votare online: tra le opzioni l’eliminazione del ruolo di Grillo</v>
       </c>
       <c r="B15" t="str">
-        <v>https://www.ilsole24ore.com/art/caso-sangiuliano-l-ex-ministro-cultura-denuncia-maria-rosaria-boccia-indaga-procura-roma-AFGkL50D</v>
+        <v>https://www.ilsole24ore.com/art/m5s-pubblicati-quesiti-votare-online-le-opzioni-l-eliminazione-ruolo-grillo-AGhxNp8</v>
       </c>
       <c r="C15" t="str">
-        <v>di Redazione Roma</v>
+        <v>di Andrea Gagliardi</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Passaporti alle Poste, dal 16 ottobre in altri 2.300 uffici da Venezia a Reggio Calabria</v>
+        <v>Tutti i dati, i grafici, le mappe</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.ilsole24ore.com/art/passaporti-poste-16-ottobre-altri-2300-uffici-venezia-reggio-calabria-AFiQStzD</v>
+        <v>https://lab24.ilsole24ore.com/elezioni-usa/</v>
       </c>
       <c r="C16" t="str">
-        <v>di Laura Serafini</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Meloni, il premio ricevuto da Musk e il riavvicinamento a Trump</v>
+        <v>“Obbligazionario Usa: puntare su governativi, credito e cartolarizzazioni”</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.ilsole24ore.com/art/meloni-premio-ricevuto-musk-e-riavvicinamento-trump-AFfxmK3D</v>
+        <v>https://stream24.ilsole24ore.com/video/finanza/obbligazionario-usa-puntare-governativi-credito-e-cartolarizzazioni/AGqGIb8</v>
       </c>
       <c r="C17" t="str">
-        <v>di Barbara Fiammeri</v>
+        <v>di Rosalba Reggio</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Federica Manzon con Alma vince il Campiello</v>
+        <v>Guglielmo Marconi, l’imprenditore e startupper che ha cambiato il mondo</v>
       </c>
       <c r="B18" t="str">
-        <v>https://stream24.ilsole24ore.com/video/cultura/federica-manzon-alma-vince-campiello/AFt0rC4D</v>
+        <v>https://stream24.ilsole24ore.com/video/italia/guglielmo-marconi-l-imprenditore-e-startupper-che-ha-cambiato-mondo/AGkUrQ8</v>
       </c>
       <c r="C18" t="str">
-        <v>di Lara Ricci</v>
+        <v>di Nicoletta Cottone</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Corte suprema USA, Cartabia e Cassese: “Riforma Biden giusta nel merito, ma tempistica rischiosa”</v>
+        <v>Villa Cagni Troubetzkoy: la dimora più esclusiva del Lago di Como</v>
       </c>
       <c r="B19" t="str">
-        <v>https://stream24.ilsole24ore.com/video/mondo/corte-suprema-usa-cartabia-e-cassese-riforma-biden-giusta-merito-ma-tempistica-rischiosa/AFmn7P2D</v>
+        <v>https://stream24.ilsole24ore.com/video/cultura/villa-cagni-troubetzkoy-dimora-piu-esclusiva-lago-como/AGHHct9</v>
       </c>
       <c r="C19" t="str">
-        <v>di Angelica Migliorisi</v>
+        <v>di Stefano Biolchini e Paola Dezza</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Milano si conferma la settimana della moda più importante</v>
+        <v>Alex Uhlmann: «Fare la propria musica significa sentirsi a casa»</v>
       </c>
       <c r="B20" t="str">
-        <v>https://stream24.ilsole24ore.com/video/moda/milano-si-conferma-settimana-moda-piu-importante/AFxCf21D</v>
+        <v>https://stream24.ilsole24ore.com/video/cultura/alex-uhlmann-fare-propria-musica-significa-sentirsi-casa/AGiZdS8</v>
       </c>
       <c r="C20" t="str">
-        <v>di Giulia Crivelli</v>
+        <v>di Francesco Prisco</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Pablo Picasso, genio immigrato</v>
+        <v>ETF in chiaro - Digital Round Table</v>
       </c>
       <c r="B21" t="str">
-        <v>https://stream24.ilsole24ore.com/video/cultura/pablo-picasso-genio-immigrato/AFS4fK2D</v>
+        <v>https://stream24.ilsole24ore.com/video/finanza/etf-chiaro--digital-round-table/AGNbAa7</v>
       </c>
       <c r="C21" t="str">
-        <v>di Stefano Biolchini</v>
+        <v>di Rosalba Reggio</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Italian Energy Summit 2024 - Verso un sistema energetico sicuro, competitivo e sostenibile</v>
+        <v>Usa, Trump sceglie Robert F. Kennedy Jr come ministro della Salute</v>
       </c>
       <c r="B22" t="str">
-        <v>https://stream24.ilsole24ore.com/video/eventi/italian-energy-summit-2024--un-sistema-energetico-sicuro-competitivo-e-sostenibile/AFYSEb2D</v>
+        <v>https://stream24.ilsole24ore.com/video/mondo/usa-trump-sceglie-robert-f-kennedy-jr-come-ministro-salute/AGrxAw9</v>
       </c>
       <c r="C22" t="str">
-        <v>di Lara Ricci</v>
+        <v>di Rosalba Reggio</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Lina Botero: mio padre ha dipinto fino all’ultimo, era veramente felice</v>
+        <v>Medioriente, razzi dal Libano su Haifa: almeno tre feriti</v>
       </c>
       <c r="B23" t="str">
-        <v>https://stream24.ilsole24ore.com/video/cultura/lina-botero-mio-padre-ha-dipinto-fino-all-ultimo-era-veramente-felice/AFtJKd2D</v>
+        <v>https://stream24.ilsole24ore.com/video/italia/medioriente-razzi-libano-haifa-almeno-tre-feriti/AGbgYv9</v>
       </c>
       <c r="C23" t="str">
-        <v>di Nicoletta Cottone</v>
+        <v>di Rosalba Reggio</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Iran, esplosione in miniera di carbone fa 19 morti: le immagini dei soccorsi</v>
+        <v>Roma, partito il corteo studentesco per lo sciopero nazionale: "No Meloni Day"</v>
       </c>
       <c r="B24" t="str">
-        <v>https://stream24.ilsole24ore.com/video/italia/iran-esplosione-miniera-carbone-fa-19-morti-immagini-soccorsi/AFAH5C4D</v>
+        <v>https://stream24.ilsole24ore.com/video/italia/roma-partito-corteo-studentesco-lo-sciopero-nazionale-no-meloni-day/AGz8Tv9</v>
       </c>
       <c r="C24" t="str">
-        <v>di Lara Ricci</v>
+        <v>di Rosalba Reggio</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Trani, quarta edizione di Radar Festival: fotografia a impatto zero</v>
+        <v>Dalla procreazione assistita alle ultime cure anti-tumori: ecco le nuove cure gratis o con il ticket</v>
       </c>
       <c r="B25" t="str">
-        <v>https://stream24.ilsole24ore.com/video/cultura/trani-quarta-edizione-radar-festival-fotografia-impatto-zero/AFTs6C4D</v>
+        <v>https://www.ilsole24ore.com/art/dalla-procreazione-assistita-ultime-cure-anti-tumori-ecco-nuove-cure-gratis-o-il-ticket-AGQKfq8</v>
       </c>
       <c r="C25" t="str">
-        <v>di Lara Ricci</v>
+        <v>di Marzio Bartoloni</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Spari in un locale nel Barese, uccisa una ragazza</v>
+        <v>Affitti brevi, dal 2025 Airbnb blocca gli annunci senza codice</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.ilsole24ore.com/art/spari-un-locale-barese-uccisa-ragazza-AFU9LA4D</v>
+        <v>https://www.ilsole24ore.com/art/affitti-brevi-2025-airbnb-blocca-annunci-senza-codice-AG89W48</v>
       </c>
       <c r="C26" t="str">
-        <v>di Riccardo Sorrentino</v>
+        <v>di Giuseppe Latour e Giovanni Parente</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Usa, spari contro la folla in Alabama: 4 morti e decine feriti</v>
+        <v>Regionali Umbria ed Emilia, qual è la posta in gioco per i leader nazionali</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.ilsole24ore.com/art/usa-spari-contro-folla-alabama-4-morti-e-decine-feriti-AFl2rC4D</v>
+        <v>https://www.ilsole24ore.com/art/regionali-umbria-ed-emilia-qual-e-posta-gioco-i-leader-nazionali-AGcxPn9</v>
       </c>
       <c r="C27" t="str">
-        <v>di Riccardo Sorrentino</v>
+        <v>di Emilia Patta</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Francia: l’Eliseo annuncia il nuovo governo Barnier</v>
+        <v>Ex produttore Suge Knight accusa: «Sean “Diddy” Combs è stato con Justin Bieber»</v>
       </c>
       <c r="B28" t="str">
-        <v>https://www.ilsole24ore.com/art/francia-l-eliseo-annuncia-nuovo-governo-barnier-AF6UBg3D</v>
+        <v>https://www.ilsole24ore.com/art/ex-produttore-suge-knight-accusa-sean-diddy-combs-e-stato-justin-bieber-AGW9Ms9</v>
       </c>
       <c r="C28" t="str">
-        <v>di Riccardo Sorrentino</v>
+        <v>di Emilia Patta</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Bonus Natale 2024: i 100 euro sono netti ma devono essere chiesti -</v>
+        <v>Autonomia, dalla Consulta sette bocciature per la legge Calderoli -</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.ilsole24ore.com/art/bonus-natale-2024-100-euro-sono-netti-ma-devono-essere-chiesti-AFUnMk2D</v>
+        <v>https://www.ilsole24ore.com/art/consulta-illegittime-alcune-disposizioni-legge-sull-autonomia-differenziata-AG207u8</v>
       </c>
       <c r="C29" t="str">
-        <v>di Riccardo Sorrentino</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Partite Iva, pronto il tachimetro dell’evasione per evitare i controlli selettivi</v>
+        <v>Pensioni, nel restyling della manovra minime a 623 euro e «silenzio-assenso»</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.ilsole24ore.com/art/partite-iva-pronto-tachimetro-dell-evasione-evitare-controlli-selettivi-AFqnbI2D</v>
+        <v>https://www.ilsole24ore.com/art/pensioni-restyling-manovra-minime-623-euro-e-silenzio-assenso-AGY1sf8</v>
       </c>
       <c r="C30" t="str">
-        <v>di Marco Mobili</v>
+        <v>di Marco Rogari</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Dai ricoveri alle assenze a lavoro: la fuga dai vaccini Covid costa 1,6 miliardi</v>
+        <v>Ricominciare a 50 anni: con l’outplacement ci riesce il 70% dei lavoratori</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.ilsole24ore.com/art/dai-ricoveri-assenze-lavoro-fuga-vaccini-covid-costa-16-miliardi-AFMVzPwD</v>
+        <v>https://www.ilsole24ore.com/art/ricominciare-50-anni-l-outplacement-ci-riesce-70percento-lavoratori-AGnl6v5</v>
       </c>
       <c r="C31" t="str">
-        <v>di Marzio Bartoloni</v>
+        <v>di Cristina Casadei</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>O’Leary: «Il modello low cost non è finito, Ryanair l’unica a crescere in Europa»</v>
+        <v>Mattarella riceve Fitto. Il presidente: suo incarico importante per l’Italia</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.ilsole24ore.com/art/o-leary-il-modello-low-cost-non-e-finito-ryanair-l-unica-crescere-europa-AFcEJ6xD</v>
+        <v>https://www.ilsole24ore.com/art/mattarella-riceve-fitto-presidente-suo-incarico-importante-l-italia-AGQ4a08</v>
       </c>
       <c r="C32" t="str">
-        <v>di Mara Monti</v>
+        <v>di Cristina Casadei</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Ronald Dworkin: il benessere, l’uguaglianza, e la disabilità</v>
+        <v>Villa Cagni Troubetzkoy, dimora da sogno e delizie sul Lago di Como -</v>
       </c>
       <c r="B33" t="str">
-        <v>https://www.ilsole24ore.com/art/ronald-dworkin-benessere-l-uguaglianza-e-disabilita-AFfafe3D</v>
+        <v>https://www.ilsole24ore.com/art/villa-cagni-troubetzkoy-dimora-sogno-e-delizie-lago-como-AGPtKG6</v>
       </c>
       <c r="C33" t="str">
-        <v>di Vittorio Pelligra</v>
+        <v>di Paola Dezza e Stefano Biolchini</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Lina Botero: mio padre ha dipinto fino all’ultimo, era veramente felice</v>
+        <v>Criptovalute, come funziona e come contrastare il riciclaggio di asset digitali</v>
       </c>
       <c r="B34" t="str">
-        <v>https://www.ilsole24ore.com/art/lina-botero-mio-padre-ha-dipinto-fino-all-ultimo-era-veramente-felice-AFOmu80D</v>
+        <v>https://24plus.ilsole24ore.com/art/criptovalute-come-funziona-e-come-contrastare-riciclaggio-asset-digitali-AGga3G8?s=hpl</v>
       </c>
       <c r="C34" t="str">
-        <v>di Nicoletta Cottone</v>
+        <v>di Vittorio Carlini</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Titolo Provvisorio</v>
+        <v>La trappola dell’armonia nella gestione delle relazioni in Asia (e forse anche da noi)</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.ilsole24ore.com/art/mancante-AFClI2xD</v>
+        <v>https://www.ilsole24ore.com/art/la-trappola-dell-armonia-gestione-relazioni-asia-e-forse-anche-noi-AG4G9L7</v>
       </c>
       <c r="C35" t="str">
-        <v>di Raoul de Forcade</v>
+        <v>di Alfonso Emanuele de León*</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Porti turistici, cresce il giro d’affari nel 2024</v>
+        <v>Somaliland, il voto della Repubblica autonoma che spera (anche) nell’appoggio di Trump</v>
       </c>
       <c r="B36" t="str">
-        <v>https://www.ilsole24ore.com/art/porti-turistici-cresce-giro-d-affari-2024-AF7DgR2D</v>
+        <v>https://24plus.ilsole24ore.com/art/somaliland-voto-repubblica-autonoma-che-spera-anche-nell-appoggio-trump-AGIMpL7?s=hpl</v>
       </c>
       <c r="C36" t="str">
-        <v>di Raoul de Forcade</v>
+        <v>di Alberto Magnani</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Pablo Picasso, Milano dedica una grande mostra al genio immigrato</v>
+        <v>Messico all’ultima spiaggia: guerra ai narcos affidata a “giudici senza volto”</v>
       </c>
       <c r="B37" t="str">
-        <v>https://www.ilsole24ore.com/art/pablo-picasso-milano-dedica-grande-mostra-genio-immigrato-AFK7eZ1D</v>
+        <v>https://24plus.ilsole24ore.com/art/messico-all-ultima-spiaggia-guerra-narcos-affidata-giudici-senza-volto-AG9FZ65?s=hpl</v>
       </c>
       <c r="C37" t="str">
-        <v>di Stefano Biolchini</v>
+        <v>di Roberto Galullo</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Trasformazioni e fusioni, l’energia eterna di Berlino</v>
+        <v>L’allarme dei consumatori: multe più salate da gennaio, rischio rincari del 6%</v>
       </c>
       <c r="B38" t="str">
-        <v>https://www.ilsole24ore.com/art/trasformazioni-e-fusioni-l-energia-eterna-berlino-AFOb6qrD</v>
+        <v>https://www.ilsole24ore.com/art/l-allarme-consumatori-multe-piu-salate-2025-rischio-aumento-6percento-AGobYu8</v>
       </c>
       <c r="C38" t="str">
-        <v>di Luca Bergamin</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Consumi green, per gli alimenti a base vegetale +16% in due anni</v>
+        <v>EuroGroup, la Cina spinge i conti. «Il 2025? non fa paura»</v>
       </c>
       <c r="B39" t="str">
-        <v>https://www.ilsole24ore.com/art/consumi-green-gli-alimenti-base-vegetale-16percento-due-anni-AFg8fOqD</v>
+        <v>https://www.ilsole24ore.com/art/eurogroup-cina-spinge-conti-il-2025-non-fa-paura-AGFay48</v>
       </c>
       <c r="C39" t="str">
-        <v>di Alexis Paparo</v>
+        <v>di Alberto Annicchiarico</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Giuli, l’Italia dimostra che la cultura è motore di sviluppo sostenibile per il mondo</v>
+        <v>Gas russo, l’Austria avverte su possibile stop a breve e il prezzo vola</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.ilsole24ore.com/art/giuli-l-italia-dimostra-che-cultura-e-motore-sviluppo-sostenibile-il-mondo-AFMYeW3D</v>
+        <v>https://www.ilsole24ore.com/art/gas-russo-l-austria-avverte-possibile-stop-breve-e-prezzo-vola-AG9z9T8</v>
       </c>
       <c r="C40" t="str">
-        <v>di Nicoletta Cottone</v>
+        <v>di Sissi Bellomo</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Kamala Harris accetta l’invito della Cnn per un secondo dibattito. Trump dice no</v>
+        <v>I regolatori contro Microsoft: nel mirino pratiche anticoncorrenziali sul cloud</v>
       </c>
       <c r="B41" t="str">
-        <v>https://www.ilsole24ore.com/art/kamala-harris-ha-accettato-l-invito-cnn-un-secondo-dibattito-23-ottobre-e-sfida-trump-AF4Tnb3D</v>
+        <v>https://www.ilsole24ore.com/art/i-regolatori-contro-microsoft-mirino-pratiche-anticoncorrenziali-cloud-AGgcp28</v>
       </c>
       <c r="C41" t="str">
-        <v>di Alexis Paparo</v>
+        <v>di Biagio Simonetta</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>«La Sicilia ha la sua banca», ok a fusione tra popolari di Ragusa e Sant’Angelo</v>
+        <v>Brasile, esplosioni alla Corte suprema a due giorni dal G-20 di Rio</v>
       </c>
       <c r="B42" t="str">
-        <v>https://www.ilsole24ore.com/art/la-sicilia-ha-sua-banca-ok-fusione-popolari-ragusa-e-sant-angelo-AFdwMS3D</v>
+        <v>https://www.ilsole24ore.com/art/brasile-esplosioni-corte-suprema-due-giorni-g-20-rio-AGsj6u8</v>
       </c>
       <c r="C42" t="str">
-        <v>di Marcello Frisone</v>
+        <v>di Roberto Da Rin</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Sportswear: così la pandemia ha fatto bene ad Asics, ma non a Puma, Adidas e Nike</v>
+        <v>«I nuovi aerei Airbus? Saranno la svolta low cost nei voli a lungo raggio»</v>
       </c>
       <c r="B43" t="str">
-        <v>https://24plus.ilsole24ore.com/art/sportswear-cosi-pandemia-ha-fatto-bene-ad-asics-ma-non-puma-adidas-e-nike-AF5HuBzD?s=hpl</v>
+        <v>https://www.ilsole24ore.com/art/i-nuovi-aerei-airbus-saranno-svolta-low-cost-voli-lungo-raggio-AGFfVc7</v>
       </c>
       <c r="C43" t="str">
-        <v>di Marcello Frisone</v>
+        <v>di Mara Monti</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Eredità Agnelli, sequestro da 74,8 milioni per frode fiscale ai fratelli Elkann</v>
+        <v>Maxi cacciabombardiere «Gcap», via libera in Italia dalla Camera</v>
       </c>
       <c r="B44" t="str">
-        <v>https://www.ilsole24ore.com/art/eredita-agnelli-sequestro-74-milioni-frode-fiscale-fratelli-elkann-AF2fzT2D</v>
+        <v>https://www.ilsole24ore.com/art/maxi-caccia-gcap-via-libera-italia-camera-AGPwf85</v>
       </c>
       <c r="C44" t="str">
-        <v>di Ivan Cimmarusti</v>
+        <v>di Gianni Dragoni</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Medjugorje, il Vaticano e quel via libera (demo)cristiano al culto</v>
+        <v>Urso: pensiamo di rialzare il fondo auto in manovra. Stellantis: non faremo licenziamenti collettivi in Italia</v>
       </c>
       <c r="B45" t="str">
-        <v>https://24plus.ilsole24ore.com/art/medjugorje-vaticano-e-quel-via-libera-democristiano-culto-AFvdbz0D?s=hpl</v>
+        <v>https://www.ilsole24ore.com/art/urso-pensiamo-aumentare-fondo-auto-manovra-AG9Azb8</v>
       </c>
       <c r="C45" t="str">
-        <v>di Francesco Prisco</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Patente a crediti, in Gazzetta il decreto per la presentazione della domanda. Tutte le novità</v>
+        <v>Dal taglio del canone Rai allo scudo penale, le novità in arrivo con il decreto fiscale</v>
       </c>
       <c r="B46" t="str">
-        <v>https://www.ilsole24ore.com/art/patente-crediti-gazzetta-decreto-la-presentazione-domanda-tutte-novita-AFI7s62D</v>
+        <v>https://www.ilsole24ore.com/art/dal-taglio-canone-rai-scudo-penale-novita-arrivo-il-decreto-fiscale-AGAMap7</v>
       </c>
       <c r="C46" t="str">
-        <v>di Giorgio Pogliotti</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Ex Ilva, 15 gruppi candidati all’acquisizione -</v>
+        <v>Trump sceglie Matt Gaetz, un ministro vendicatore alla Giustizia</v>
       </c>
       <c r="B47" t="str">
-        <v>https://www.ilsole24ore.com/art/ex-ilva-15-gruppi-candidati-all-acquisizione-AF5jhH3D</v>
+        <v>https://www.ilsole24ore.com/art/trump-sceglie-matt-gaetz-ministro-vendicatore-giustizia-AGyxR37</v>
       </c>
       <c r="C47" t="str">
-        <v>di Domenico Palmiotti</v>
+        <v>dal nostro inviato a New York Luca Veronese</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Da Gucci a Tod’s, convince chi punta su una poetica sottrazione</v>
+        <v>Migranti, Mattarella su Musk: «L’Italia sa badare a sé stessa». E Meloni: «Ascoltiamo con rispetto il presidente». Il magnate contrattacca: «Decide un’autocrazia non eletta?»</v>
       </c>
       <c r="B48" t="str">
-        <v>https://www.ilsole24ore.com/art/da-gucci-tod-s-convince-chi-punta-una-poetica-sottrazione-AFmuDG3D</v>
+        <v>https://www.ilsole24ore.com/art/giustizia-mattarella-musk-l-italia-sa-badare-se-stessa-rispetto-carta-AGRUN46</v>
       </c>
       <c r="C48" t="str">
-        <v>di Angelo Flaccavento</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Prada interpreta il caos del nostro tempo, la classicità quotidiana di Max Mara</v>
+        <v>Trump nomina Musk e Ramaswamy per rivoluzionare la spesa pubblica americana</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.ilsole24ore.com/art/prada-interpreta-caos-nostro-tempo-classicita-quotidiana-max-mara-AFWiFw1D</v>
+        <v>https://www.ilsole24ore.com/art/trump-chiama-musk-e-ramaswamy-una-bomba-atomica-spesa-pubblica-americana-AGwHyb6</v>
       </c>
       <c r="C49" t="str">
-        <v>di Angelo Flaccavento</v>
+        <v>dal nostro inviato a New York Luca Veronese</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Da Antonio Marras a Roberto Cavalli, la forza emozionante della nostalgia</v>
+        <v>Trump: «Con Biden parlato di Ucraina e Medio Oriente». E «la transizione sarà facile»</v>
       </c>
       <c r="B50" t="str">
-        <v>https://www.ilsole24ore.com/art/da-antonio-marras-roberto-cavalli-forza-emozionante-nostalgia-AFepxc0D</v>
+        <v>https://www.ilsole24ore.com/art/biden-accoglie-trump-casa-bianca-presidente-eletto-la-transizione-sara-facile-AG7TWN7</v>
       </c>
       <c r="C50" t="str">
-        <v>di Angelo Flaccavento</v>
+        <v>da New York Marco Valsania e Luca Veronese</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Imu, addio a 250mila aliquote. Arriva l’imposta semplificata</v>
+        <v>Thune eletto leader al Senato Usa, sconfitto il candidato della destra repubblicana. Rubio segretario di Stato</v>
       </c>
       <c r="B51" t="str">
-        <v>https://24plus.ilsole24ore.com/art/imu-addio-250mila-aliquote-arriva-l-imposta-semplificata-AFGpJg0D?s=hpl</v>
+        <v>https://www.ilsole24ore.com/art/thune-eletto-leader-senato-usa-sconfitto-candidato-destra-repubblicana-AGgwMZ7</v>
       </c>
       <c r="C51" t="str">
-        <v>di Gianni Trovati</v>
+        <v>di Luca Veronese</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Veleni, intrighi e interrogatori. Il terremoto che scuote l’oasi di Montecarlo</v>
+        <v>Carica di emendamenti alla manovra: dal turn over nella Pa ai revisori Mef</v>
       </c>
       <c r="B52" t="str">
-        <v>https://24plus.ilsole24ore.com/art/veleni-intrighi-e-interrogatori-terremoto-che-scuote-l-oasi-montecarlo-AFXpPG2D?s=hpl</v>
+        <v>https://www.ilsole24ore.com/art/dal-turn-over-pa-revisori-mef-carica-emendamenti-manovra-arrivo-lunedi-AGwBy11</v>
       </c>
       <c r="C52" t="str">
-        <v>di Angelo Mincuzzi</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Grande Oriente senza pace: nuovo round al Tribunale e c’è chi evoca P2 e “soluzioni finali”</v>
+        <v>Pensioni, come e quanto saranno rivalutate nel 2025</v>
       </c>
       <c r="B53" t="str">
-        <v>https://24plus.ilsole24ore.com/art/grande-oriente-senza-pace-nuovo-round-tribunale-e-c-e-chi-evoca-p2-e-soluzioni-finali-AFPzRC1D?s=hpl</v>
+        <v>https://24plus.ilsole24ore.com/art/pensioni-come-e-quanto-saranno-rivalutate-2025-AGc8ppa?s=hpl</v>
       </c>
       <c r="C53" t="str">
-        <v>di Roberto Galullo</v>
+        <v>di Marco Rogari</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Cannata: Vi svelo la ricetta per domare il debito pubblico italiano</v>
+        <v>Manovra, ecco come cambiano le detrazioni, tetti di spesa per redditi e figli a carico</v>
       </c>
       <c r="B54" t="str">
-        <v>https://24plus.ilsole24ore.com/art/cannata-vi-svelo-ricetta-domare-debito-pubblico-italiano-AFqU2Y1D?s=hpl</v>
+        <v>https://24plus.ilsole24ore.com/art/manovra-ecco-come-cambiano-detrazioni-tetti-spesa-redditi-e-figli-carico-AGGLmtZ?s=hpl</v>
       </c>
       <c r="C54" t="str">
-        <v>di Maximilian Cellino</v>
+        <v>di Marco Mobili e Giovanni Parente</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Università, ecco i master che fanno trovare il lavoro: tutte le novità dall’Ai al green</v>
+        <v>Dalle pensioni ai bonus casa: tutte le misure della manovra 2025 -</v>
       </c>
       <c r="B55" t="str">
-        <v>https://24plus.ilsole24ore.com/art/universita-ecco-master-che-fanno-trovare-lavoro-tutte-novita-dall-intelligenza-artificiale-green-AFpKZyXD?s=hpl</v>
+        <v>https://www.ilsole24ore.com/art/dalle-pensioni-bonus-casa-tutte-misure-manovra-2025-AGlNxzZ</v>
       </c>
       <c r="C55" t="str">
-        <v>di Francesca Barbieri</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>«Alma» di Federica Manzon vince il premio Campiello</v>
+        <v>Ok alla manovra 2025 da 30 miliardi lordi: bonus bebé, casa, pensioni, contributo banche e accise, ecco le novità -</v>
       </c>
       <c r="B56" t="str">
-        <v>https://www.ilsole24ore.com/art/alma-federica-manzon-vince-premio-campiello-AFmjnW3D</v>
+        <v>https://www.ilsole24ore.com/art/domani-consiglio-ministri-arrivano-dpb-decreto-fiscale-e-anche-manovra-AGeFQeY</v>
       </c>
       <c r="C56" t="str">
-        <v>di Lara Ricci</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Appena prima dell’ultimo accordo</v>
+        <v>Intelligenza artificiale, servono modelli avanzati per competere</v>
       </c>
       <c r="B57" t="str">
-        <v>https://www.ilsole24ore.com/art/appena-prima-dell-ultimo-accordo-AFCxhR3D</v>
+        <v>https://www.ilsole24ore.com/art/intelligenza-artificiale-servono-modelli-avanzati-competere-AG607G7</v>
       </c>
       <c r="C57" t="str">
-        <v>di Giulia Arnoldi</v>
+        <v>di Marco Alfieri</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Perché finanziare il premio Campiello?</v>
+        <v>Butti: «Investito 1 miliardo nelle start up, ora sviluppare la partecipazione dei privati»</v>
       </c>
       <c r="B58" t="str">
-        <v>https://stream24.ilsole24ore.com/video/cultura/perche-finanziare-premio-campiello/AFW4LT2D</v>
+        <v>https://www.ilsole24ore.com/art/butti-investito-1-miliardo-start-up-ora-sviluppare-partecipazione-privati-AG3lFA7</v>
       </c>
       <c r="C58" t="str">
-        <v>di Lara Ricci</v>
+        <v>di Marco Alfieri</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>I reati denunciati in Italia tornano a salire. È la prima volta dal 2013. Le città peggiori -</v>
+        <v>Infrastruttura indispensabile per il futuro del paese</v>
       </c>
       <c r="B59" t="str">
-        <v>https://lab24.ilsole24ore.com/indice-della-criminalita/</v>
+        <v>https://www.ilsole24ore.com/art/infrastruttura-indispensabile-il-futuro-paese-AGV5X65</v>
       </c>
       <c r="C59" t="str">
-        <v>di Marta Casadei e Michela Finizio</v>
+        <v>di Giuliano Noci</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Scopri l’indice della criminalità 2024 della tua provincia</v>
+        <v>Il sistema produttivo alla sfida della transizione digitale</v>
       </c>
       <c r="B60" t="str">
-        <v>https://lab24.ilsole24ore.com/indice-della-criminalita/classifica/</v>
+        <v>https://www.ilsole24ore.com/art/il-sistema-produttivo-sfida-transizione-digitale-AGV3Be7</v>
       </c>
       <c r="C60" t="str">
-        <v>di Marta Casadei e Michela Finizio</v>
+        <v>di Luca Benecchi</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Criminalità, il 30% dei reati nei grandi centri: la geografia della sicurezza</v>
+        <v>Il Texas avvisa Big Tech: nuovi data center solo se costruisci anche centrali elettriche</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.ilsole24ore.com/art/criminalita-30percento-reati-grandi-centri-geografia-sicurezza-AFJJGRpD</v>
+        <v>https://www.ilsole24ore.com/art/il-texas-avvisa-big-tech-nuovi-data-center-solo-se-costrusci-anche-centrali-elettriche-AG9aKFj</v>
       </c>
       <c r="C61" t="str">
-        <v>di Marta Casadei e Michela Finizio</v>
+        <v>di Biagio Simonetta</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>«C’è più controllo del territorio. Inasprire le pene? Non serve»</v>
+        <v>La crisi nera dell’auto Ue: vincono solo i cinesi di Byd, insieme a Tesla e Gm -</v>
       </c>
       <c r="B62" t="str">
-        <v>https://www.ilsole24ore.com/art/c-e-piu-controllo-territorio-inasprire-pene-non-serve-AFiYKbpD</v>
+        <v>https://24plus.ilsole24ore.com/art/la-crisi-nera-dell-auto-ue-vincono-solo-cinesi-byd-tesla-e-gm-AGQB4B1?s=hpl</v>
       </c>
       <c r="C62" t="str">
-        <v>di Marta Casadei e Michela Finizio</v>
+        <v>di Alberto Annicchiarico</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Greco (delega alla sicurezza, Comune di Roma): «Bisogna investire, ma il Comune ha risorse limitate»</v>
+        <v>Volkswagen: 10 fabbriche a rischio in Germania, partono i tagli -</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.ilsole24ore.com/art/greco-delega-sicurezza-comune-roma-bisogna-investire-ma-comune-ha-risorse-limitate-AFqiufrD</v>
+        <v>https://www.ilsole24ore.com/art/volkswagen-taglia-costi-4-miliardi-via-proteste-sciopero-e-assemblee-AG6dX5n</v>
       </c>
       <c r="C63" t="str">
-        <v>di Marta Casadei e Michela Finizio</v>
+        <v>di Alberto Annicchiarico</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Possibile attentato contro Donald Trump sventato dal Secret Service. Cremlino: «Giocare con il fuoco ha le sue conseguenze»</v>
+        <v>Altavilla (Byd): «Bisogna vedere chi fra i costruttori di auto arriverà vivo nel 2035»</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.ilsole24ore.com/art/possibile-attentato-contro-donald-trump-sventato-secret-service-arrestato-uomo-armato-AFZ35IwD</v>
+        <v>https://www.ilsole24ore.com/art/altavilla-byd-bisogna-vedere-chi-i-costruttori-auto-arrivera-vivo-2035-AGzmNMp</v>
       </c>
       <c r="C64" t="str">
-        <v>di Marco Valsania</v>
+        <v>di Corrado Canali</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Usa, il duello tv spinge Harris. Trump: no a un nuovo dibattito</v>
+        <v>Affitti brevi e prezzi record: tutti i numeri della crisi abitativa Ue e il confronto tra Paesi</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.ilsole24ore.com/art/usa-duello-tv-spinge-harris-trump-no-un-nuovo-dibattito-AF6fMNsD</v>
+        <v>https://www.ilsole24ore.com/art/affitti-brevi-e-prezzi-record-numeri-crisi-abitativa-ue-AGtYCPo</v>
       </c>
       <c r="C65" t="str">
-        <v>di Marco Valsania</v>
+        <v>di Silvia Martelli (Il Sole 24 Ore, Italia), Dan Popa (Hotnews.ro, Romania), Ieva Kniukštienė (Delfi, Lituania,) Dina Daskalopoulou (EFSYN, Grecia), Matěj Moravanský (Deník Referendum, Repubblica Ceca), e Franziska Zoidl e Martin Putschögl (DER STANDARD, Austria)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Sondaggio Cnn: Kamala Harris vince il dibattito con Trump secondo il 67% degli elettori</v>
+        <v>Dalla Danimarca alla Spagna, ecco l’Europa dei quartieri ghetto</v>
       </c>
       <c r="B66" t="str">
-        <v>https://www.ilsole24ore.com/art/trump-dibattito-truccato-non-so-se-voglio-farne-altro-AFw1ZSqD</v>
+        <v>https://www.ilsole24ore.com/art/dalla-danimarca-spagna-l-europa-quartieri-ghetto-AGDBtAU</v>
       </c>
       <c r="C66" t="str">
-        <v>di Marco Valsania</v>
+        <v>di Michele Pignatelli (Il Sole 24 Ore, Italia), Miguel Ángel Gavilanes, Ana Ruíz, Marta Ley (El Confidencial, Spagna), Bianca Blei (Der Standard, Austria), Krassen Nikolov (Mediapool.bg)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Ecco i momenti salienti del dibattito tra Harris e Trump</v>
+        <v>Il Sole 24 Ore è tra i 10 media europei di PULSE</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.ilsole24ore.com/art/ecco-momenti-salienti-dibattito-harris-e-trump-AFYkN9pD</v>
+        <v>https://www.ilsole24ore.com/art/il-sole-24-ore-e-i-10-media-europei-pulse-AFHQ5OAD</v>
       </c>
       <c r="C67" t="str">
-        <v>di Francesco Prisco</v>
+        <v>di Michele Pignatelli (Il Sole 24 Ore, Italia), Miguel Ángel Gavilanes, Ana Ruíz, Marta Ley (El Confidencial, Spagna), Bianca Blei (Der Standard, Austria), Krassen Nikolov (Mediapool.bg)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Taylor Swift, endorsement per Kamala Harris: «Sono una gattara senza figli»</v>
+        <v>Ministra Locatelli: «Programma d’azione concreto per una società per tutti»</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.ilsole24ore.com/art/taylor-swift-endorsement-kamala-harris-sono-gattara-senza-figli-AFFzd5pD</v>
+        <v>https://www.ilsole24ore.com/art/ministra-locatelli-programma-d-azione-concreto-una-societa-tutti-AG4b1ga</v>
       </c>
       <c r="C68" t="str">
-        <v>di Francesco Prisco</v>
+        <v>di Monica D'Ascenzo</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>I piaceri della vendemmia, storie di profumi, la moda fra evoluzioni e sfide</v>
+        <v>«Lasciare indietro le persone con disabilità? Un costo per la società»</v>
       </c>
       <c r="B69" t="str">
-        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFRhd70D</v>
+        <v>https://www.ilsole24ore.com/art/lasciare-indietro-persone-disabilita-costo-la-societa-AG30SNc</v>
       </c>
       <c r="C69" t="str">
-        <v>di Chiara Beghelli</v>
+        <v>di Maria Paola Mosca</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Pensione integrativa, novità in arrivo</v>
+        <v>Inclusione e disabilità al centro anche del prossimo G20</v>
       </c>
       <c r="B70" t="str">
-        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFSIkO2D</v>
+        <v>https://www.ilsole24ore.com/art/inclusione-e-disabilita-centro-anche-prossimo-g20-AGH9SNc</v>
       </c>
       <c r="C70" t="str">
-        <v>di Andrea Franceschi e Vitaliano D'Angerio</v>
+        <v>di Monica D'Ascenzo e Angelica Migliorisi</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>La prima autostrada del mondo? È in Italia e compie 100 cento anni</v>
+        <v>Al G7 inclusione e disabilità ratificata la Carta di Solfagnano</v>
       </c>
       <c r="B71" t="str">
-        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFvUsN2D</v>
+        <v>https://www.ilsole24ore.com/art/al-g7-inclusione-e-disabilita-ratificata-carta-solfagnano-AGfFXYa</v>
       </c>
       <c r="C71" t="str">
-        <v>di Francesca Barbieri</v>
+        <v>di Monica D'Ascenzo e Angelica Migliorisi</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Dalla connettività al cloud, la sicurezza informatica non è un optional</v>
+        <v>Tenuto a battesimo il primo G7 inclusione e disabilità</v>
       </c>
       <c r="B72" t="str">
-        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFVWKD4</v>
+        <v>https://www.ilsole24ore.com/art/tenuto-battesimo-primo-g7-inclusione-e-disabilita-AGjCTYY</v>
       </c>
       <c r="C72" t="str">
-        <v>di Chiara Beghelli</v>
+        <v>di Monica D'Ascenzo</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Armi Nato contro la Russia (tra rischio nucleare e speranze di pace)</v>
+        <v>Il mio vicino mi spia</v>
       </c>
       <c r="B73" t="str">
-        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFkZaB2D</v>
+        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AGEWA28</v>
       </c>
       <c r="C73" t="str">
-        <v>di Antonella Scott e Enrico Marro</v>
+        <v>di Annarita D'Ambrosio</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Treni di notte, passaporti alle Poste e smart working</v>
+        <v>La Germania scopre il “rischio Paese”</v>
       </c>
       <c r="B74" t="str">
-        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFeWM70D</v>
+        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AGADAB9</v>
       </c>
       <c r="C74" t="str">
-        <v>di Francesca Barbieri</v>
+        <v>di Andrea Franceschi e Maximilian Cellino</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Quanto è giustificato il maxi-taglio Fed?</v>
+        <v>Ryanair rimborsa i costi extra del check-in (ma non a tutti)</v>
       </c>
       <c r="B75" t="str">
-        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFlFpt0D</v>
+        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AGzku08</v>
       </c>
       <c r="C75" t="str">
-        <v>di Andrea Franceschi</v>
+        <v>di Antonio Larizza</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Una guerra totale in Medio Oriente è davvero inevitabile?</v>
+        <v>Dalla connettività al cloud, la sicurezza informatica non è un optional</v>
       </c>
       <c r="B76" t="str">
-        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFkU3w0D</v>
+        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFVWKD4</v>
       </c>
       <c r="C76" t="str">
-        <v>di Roberto Bongiorni e Enrico Marro</v>
+        <v>di Annarita D'Ambrosio</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Alluvione in Romagna, : dopo il disastro la conta dei danni</v>
+        <v>Make Trump Great Again: l’identikit di tutti gli uomini del presidente</v>
       </c>
       <c r="B77" t="str">
-        <v>https://stream24.ilsole24ore.com/gallery/italia/alluvione-romagna-il-disastro-conta-danni/AFVVDD4D</v>
+        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AGWOKn8</v>
       </c>
       <c r="C77" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Marco Valsania e Enrico Marro</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Laura Biagiotti, la collezione per la PE 2025</v>
+        <v>Wall Street e il problema della gravità</v>
       </c>
       <c r="B78" t="str">
-        <v>https://stream24.ilsole24ore.com/gallery/moda/laura-biagiotti-collezione-la-pe-2025/AFiOoh3D</v>
+        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AGxPVU7</v>
       </c>
       <c r="C78" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Andrea Franceschi e Vittorio Carlini</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Diesel, la collezione per la PE 2025</v>
+        <v>Mattarella bacchetta Musk (che risponde)</v>
       </c>
       <c r="B79" t="str">
-        <v>https://stream24.ilsole24ore.com/gallery/moda/diesel-collezione-la-pe-2025/AFsbXf3D</v>
+        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AG9Foe7</v>
       </c>
       <c r="C79" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Angelica Migliorisi</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Dolce e Gabbana, la collezione per la PE 2025</v>
+        <v>Macron, il mondo dei carnivori e la possibile alleanza transalpina in Europa</v>
       </c>
       <c r="B80" t="str">
-        <v>https://stream24.ilsole24ore.com/gallery/moda/dolce-e-gabbana-collezione-la-pe-2025/AFgYsZ3D</v>
+        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AGPEK66</v>
       </c>
       <c r="C80" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Daniele Bellasio</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Ferragamo, la collezione per la PE 2025</v>
+        <v>Ucraina, 990° giorno di guerra</v>
       </c>
       <c r="B81" t="str">
-        <v>https://stream24.ilsole24ore.com/gallery/moda/ferragamo-collezione-la-pe-2025/AF6hLR3D</v>
+        <v>https://stream24.ilsole24ore.com/gallery/mondo/ucraina-990-giorno-guerra/AGfDJj9</v>
       </c>
       <c r="C81" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Ermanno Scervino, la collezioneper la PE 2025</v>
+        <v>Guerra Israele-Hamas, le immagini del 15 novembre</v>
       </c>
       <c r="B82" t="str">
-        <v>https://stream24.ilsole24ore.com/gallery/moda/ermanno-scervino-collezioneper-pe-2025/AF9KjQ3D</v>
+        <v>https://stream24.ilsole24ore.com/gallery/mondo/guerra-israele-hamas-immagini-15-novembre/AGjDai9</v>
       </c>
       <c r="C82" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Ucraina, 935° giorno di guerra</v>
+        <v>Guerra Israele-Hamas, le immagini del 14 novembre</v>
       </c>
       <c r="B83" t="str">
-        <v>https://stream24.ilsole24ore.com/gallery/mondo/ucraina-935-giorno-guerra/AFeNtK3D</v>
+        <v>https://stream24.ilsole24ore.com/gallery/mondo/guerra-israele-hamas-immagini-14-novembre/AG7RJO8</v>
       </c>
       <c r="C83" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Guerra Hamas - Israele, le immagini del 21settembre</v>
+        <v>Ucraina, 989° giorno di guerra</v>
       </c>
       <c r="B84" t="str">
-        <v>https://stream24.ilsole24ore.com/gallery/mondo/guerra-hamas--israele-immagini-21settembre/AFsPuG3D</v>
+        <v>https://stream24.ilsole24ore.com/gallery/mondo/ucraina-989-giorno-guerra/AGNSXJ8</v>
       </c>
       <c r="C84" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Da Eurofighter una spinta a crescita e occupazione</v>
+        <v>Giacomini spa: rivoluzione nel riscaldamento sostenibile con la nuova caldaia a idrogeno</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.ilsole24ore.com/art/da-eurofighter-spinta-crescita-e-occupazione-AFlEypwC</v>
+        <v>https://stream24.ilsole24ore.com/gallery/economia/giacomini-spa-rivoluzione-riscaldamento-sostenibile-la-nuova-caldaia-idrogeno/AGDndH8</v>
       </c>
       <c r="C85" t="str">
-        <v>di Gabriele Capomasi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Tecnologia made in Italy vincente per lo sviluppo del consorzio Eurofighter</v>
+        <v>Maltempo nel Catanese, case allagate e auto trascinate verso il mare</v>
       </c>
       <c r="B86" t="str">
-        <v>https://www.ilsole24ore.com/art/tecnologia-made-italy-vincente-lo-sviluppo-consorzio-eurofighter-AFlJ0vwC</v>
+        <v>https://stream24.ilsole24ore.com/gallery/italia/maltempo-catanese-case-allagate-e-auto-trascinate-il-mare/AGSYTQ7</v>
       </c>
       <c r="C86" t="str">
-        <v>di Raoul De Forcade</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Le fonti rinnovabili accelerano ma non saziano la fame di energia</v>
+        <v>L’arrivo dell’airbus A321XLR di Iberia presso La Munoza l’hangar di Madrid</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.ilsole24ore.com/art/le-fonti-rinnovabili-accelerano-ma-non-saziano-fame-energia-AFLB3mMC</v>
+        <v>https://stream24.ilsole24ore.com/gallery/finanza/l-arrivo-dell-airbus-a321xlr-iberia-presso-munoza-l-hangar-madrid/AGW0026</v>
       </c>
       <c r="C87" t="str">
-        <v>di Sissi Bellomo</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>La Ue fa solo norme, gli Usa danno incentivi</v>
+        <v>Ucraina, 988° giorno di guerra</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.ilsole24ore.com/art/la-ue-fa-solo-norme-usa-danno-incentivi-AGG296g</v>
+        <v>https://stream24.ilsole24ore.com/gallery/mondo/ucraina-988-giorno-guerra/AGYuMs6</v>
       </c>
       <c r="C88" t="str">
-        <v>di Laura La Posta</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Sfruttare i dati satellitari per anticipare i rischi climatici</v>
+        <v>Mese dell’educazione finanziaria</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.ilsole24ore.com/art/sfruttare-dati-satellitari-anticipare-rischi-climatici-AFIRQ9dC</v>
+        <v>https://www.ilsole24ore.com/superdossier/20241106_educazione-finanziaria-AGH1Xvr</v>
       </c>
       <c r="C89" t="str">
-        <v>di Claudia La Via</v>
+        <v>a cura della redazione di Plus24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Candidature aperte al premio Sole24 Ore-Vaticano Impresa sostenibile 2024</v>
+        <v>Le assicurazioni del futuro</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.ilsole24ore.com/art/candidature-aperte-premio-sole24-ore-vaticano-impresa-sostenibile-2024-AF0PipdC</v>
+        <v>https://www.ilsole24ore.com/art/le-assicurazioni-futuro-AG6d8ux</v>
       </c>
       <c r="C90" t="str">
-        <v>di Laura La Posta</v>
+        <v>a cura della redazione di Plus24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Dormi sonni tranquilli sui migliori materassi matrimoniali traspiranti</v>
+        <v>Il linguaggio assicurativo riesce a decifralo solo una donna su quattro</v>
       </c>
       <c r="B91" t="str">
-        <v>https://consigli24.ilsole24ore.com/2024/09/22/i-migliori-materassi-matrimoniali-traspiranti/?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/il-linguaggio-assicurativo-riesce-decifralo-solo-donna-quattro-AGVPfHx</v>
       </c>
       <c r="C91" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Lucilla Incorvati</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>90 anni di Sophia Loren: guarda i suoi capolavori su Prime Video</v>
+        <v>Dieci principi per promuovere la cultura finanziaria</v>
       </c>
       <c r="B92" t="str">
-        <v>https://consigli24.ilsole24ore.com/2024/09/20/90-anni-di-sophia-loren-guarda-i-suoi-capolavori-su-prime-video/?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/dieci-principi-promuovere-cultura-finanziaria-AFC7aI1</v>
       </c>
       <c r="C92" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Gianfranco Ursino</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Festa delle Offerte Prime: l'8 e 9 ottobre, 48 ore di sconti da non perdere</v>
+        <v>Le fonti rinnovabili accelerano ma non saziano la fame di energia</v>
       </c>
       <c r="B93" t="str">
-        <v>https://consigli24.ilsole24ore.com/2024/09/19/festa-delle-offerte-prime/?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/le-fonti-rinnovabili-accelerano-ma-non-saziano-fame-energia-AFLB3mMC</v>
       </c>
       <c r="C93" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Sissi Bellomo</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Fisco, ultimo giorno per versare l’Irpef 2023 e per le variazioni Imu: cosa c’è da sapere</v>
+        <v>La Ue fa solo norme, gli Usa danno incentivi</v>
       </c>
       <c r="B94" t="str">
-        <v>https://www.ilsole24ore.com/art/fisco-ultimo-giorno-versare-l-irpef-2023-e-le-variazioni-imu-cosa-c-e-sapere-AFALJvLC</v>
+        <v>https://www.ilsole24ore.com/art/la-ue-fa-solo-norme-usa-danno-incentivi-AGG296g</v>
       </c>
       <c r="C94" t="str">
-        <v>di Redazione Roma</v>
+        <v>di Laura La Posta</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Partite Iva, ecco il software delle Entrate per calcolare quanto pagare</v>
+        <v>Sfruttare i dati satellitari per anticipare i rischi climatici</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.ilsole24ore.com/art/partite-iva-via-concordato-il-fisco-conto-ridotto-primo-anno-dati-ecco-software-AG5IvLa</v>
+        <v>https://www.ilsole24ore.com/art/sfruttare-dati-satellitari-anticipare-rischi-climatici-AFIRQ9dC</v>
       </c>
       <c r="C95" t="str">
-        <v>di Marco Mobili e Giovanni Parente</v>
+        <v>di Claudia La Via</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Fisco, corsa ai rimborsi del 730 precompilato: già un milione di invii</v>
+        <v>Candidature aperte al premio Sole24 Ore-Vaticano Impresa sostenibile 2024</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.ilsole24ore.com/art/fisco-corsa-rimborsi-730-precompilato-gia-milione-invii--video-ruffini-ade-sempre-piu-passo-i-tempi-AGPAhzI</v>
+        <v>https://www.ilsole24ore.com/art/candidature-aperte-premio-sole24-ore-vaticano-impresa-sostenibile-2024-AF0PipdC</v>
       </c>
       <c r="C96" t="str">
-        <v>di Giovanni Parente</v>
+        <v>di Laura La Posta</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Technogym: salute e intelligenza artificiale per sostenere i margini</v>
+        <v>Le migliori scarpe waterproof per stare asciutti con pioggia e neve</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.ilsole24ore.com/art/technogym-salute-e-intelligenza-artificiale-sostenere-margini-AFz3EJpD</v>
+        <v>https://consigli24.ilsole24ore.com/2024/11/15/migliori-scarpe-waterproof-2/?cmpid=.com</v>
       </c>
       <c r="C97" t="str">
-        <v>di Vittorio Carlini</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Intelligenza artificiale: Amd sfida i chip di Nvidia In Borsa resta l’incertezza</v>
+        <v>Prodotti come nuovi a prezzi straordinari: scopri Amazon Renewed</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.ilsole24ore.com/art/intelligenza-artificiale-amd-sfida-chip-nvidia-borsa-resta-l-incertezza-AFAK0YjD</v>
+        <v>https://consigli24.ilsole24ore.com/2024/11/12/amazon-renewed/?cmpid=.com</v>
       </c>
       <c r="C98" t="str">
-        <v>di Vittorio Carlini</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Intelligenza artificiale: Broadcom gioca le carte con software e microchip</v>
+        <v>Arrivano la Settimana del Black Friday e il Black Friday Universe!</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.ilsole24ore.com/art/intelligenza-artificiale-broadcom-gioca-carte-software-e-microchip-AF4ZY2ZD</v>
+        <v>https://consigli24.ilsole24ore.com/2024/11/09/settimana-del-black-friday/?cmpid=.com</v>
       </c>
       <c r="C99" t="str">
-        <v>di Vittorio Carlini</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Bonus edilizi in vista della chiusura: ultima corsa per i lavori</v>
+        <v>Da Eurofighter una spinta a crescita e occupazione</v>
       </c>
       <c r="B100" t="str">
-        <v>https://24plus.ilsole24ore.com/art/bonus-edilizi-vista-chiusura-ultima-corsa-i-lavori-AFPwvT8B?s=hpl</v>
+        <v>https://www.ilsole24ore.com/art/da-eurofighter-spinta-crescita-e-occupazione-AFlEypwC</v>
       </c>
       <c r="C100" t="str">
-        <v>di Giuseppe Latour e Giovani Parente</v>
+        <v>di Gabriele Capomasi</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Salva casa, come cambia? Tolleranze dal 6% al 10%: ecco per quali immobili</v>
+        <v>Tecnologia made in Italy vincente per lo sviluppo del consorzio Eurofighter</v>
       </c>
       <c r="B101" t="str">
-        <v>https://24plus.ilsole24ore.com/art/salva-casa-tolleranze-6percento-i-mini-appartamenti-10percento-gli-immobili-piu-vecchi-AFjoOJBC?s=hpl</v>
+        <v>https://www.ilsole24ore.com/art/tecnologia-made-italy-vincente-lo-sviluppo-consorzio-eurofighter-AFlJ0vwC</v>
       </c>
       <c r="C101" t="str">
-        <v>di Giuseppe Latour</v>
+        <v>di Raoul De Forcade</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Bonus mobili, rischio stop dal prossimo anno</v>
+        <v>Apple, non solo iPhone: più ricavi da servizi. In Borsa il titolo è caro</v>
       </c>
       <c r="B102" t="str">
-        <v>https://www.ilsole24ore.com/art/bonus-mobili-rischio-stop-prossimo-anno-AFKzUV8B</v>
+        <v>https://www.ilsole24ore.com/art/apple-non-solo-iphone-piu-ricavi-servizi-borsa-titolo-e-caro-AGtgAOx</v>
       </c>
       <c r="C102" t="str">
-        <v>di Giuseppe Latour e Giovani Parente</v>
+        <v>di Vittorio Carlini</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Orologi, Stati Uniti e Giappone trainano l’aumento dell’export</v>
+        <v>Palo Alto Networks: gli assalti degli hacker spingono il business</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.ilsole24ore.com/art/orologi-stati-uniti-e-giappone-trainano-l-aumento-dell-export-AFhR4T2D</v>
+        <v>https://www.ilsole24ore.com/art/palo-alto-networks-assalti-hacker-spingono-business-AG3aKtp</v>
       </c>
       <c r="C103" t="str">
-        <v>di Lino Terlizzi</v>
+        <v>di Vittorio Carlini</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Uniqlo inaugura a Roma Termini il primo negozio in una stazione europea</v>
+        <v>I nuovi target di Netflix: non solo nuovi abbonati ma margini più elevati</v>
       </c>
       <c r="B104" t="str">
-        <v>https://www.ilsole24ore.com/art/uniqlo-inaugura-roma-termini-primo-negozio-una-stazione-europea-AFicHy1D</v>
+        <v>https://www.ilsole24ore.com/art/i-nuovi-target-netflix-non-solo-nuovi-abbonati-ma-margini-piu-elevati-AGkX7Hj</v>
       </c>
       <c r="C104" t="str">
-        <v>di Chiara Beghelli</v>
+        <v>di Vittorio Carlini</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Lusso, la crisi non scoraggia gli operatori: 8 su 10 continueranno a investire</v>
+        <v>Bonus edilizi in vista della chiusura: ultima corsa per i lavori</v>
       </c>
       <c r="B105" t="str">
-        <v>https://www.ilsole24ore.com/art/lusso-crisi-non-scoraggia-operatori-8-10-continueranno-investire-AF0Vby0D</v>
+        <v>https://24plus.ilsole24ore.com/art/bonus-edilizi-vista-chiusura-ultima-corsa-i-lavori-AFPwvT8B?s=hpl</v>
       </c>
       <c r="C105" t="str">
-        <v>di Marta Casadei</v>
+        <v>di Giuseppe Latour e Giovani Parente</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Lusso, l’autunno caldo del mercato Usa tra elezioni e mosse della Fed</v>
+        <v>Salva casa, come cambia? Tolleranze dal 6% al 10%: ecco per quali immobili</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.ilsole24ore.com/art/lusso-l-autunno-caldo-mercato-usa-elezioni-e-mosse-fed-AFVx04nD</v>
+        <v>https://24plus.ilsole24ore.com/art/salva-casa-tolleranze-6percento-i-mini-appartamenti-10percento-gli-immobili-piu-vecchi-AFjoOJBC?s=hpl</v>
       </c>
       <c r="C106" t="str">
-        <v>di Marta Casadei</v>
+        <v>di Giuseppe Latour</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Sfila Tod’s: la nuova visione della moda di Matteo Tamburini</v>
+        <v>Bonus mobili, rischio stop dal prossimo anno</v>
       </c>
       <c r="B107" t="str">
-        <v>https://www.ilsole24ore.com/art/sfila-tod-s-nuova-visione-moda-matteo-tamburini-AF5VVlxD</v>
+        <v>https://www.ilsole24ore.com/art/bonus-mobili-rischio-stop-prossimo-anno-AFKzUV8B</v>
       </c>
       <c r="C107" t="str">
-        <v>di Massimiliano Sortino</v>
+        <v>di Giuseppe Latour e Giovani Parente</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Il valore del tempo: le novità del mondo dell’orologeria con 24Hours</v>
+        <v>Da Brunello Cucinelli arriva la nuova collezione di fragranze “Incanti poetici”</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.ilsole24ore.com/art/il-valore-tempo-novita-mondo-dell-orologeria-24hours-AFLgNizD</v>
+        <v>https://www.ilsole24ore.com/art/da-brunello-cucinelli-arriva-nuova-collezione-fragranze-incanti-poetici-AGNkFn8</v>
       </c>
       <c r="C108" t="str">
-        <v>di Redazione</v>
+        <v>di Marika Gervasio</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Un posto in prima fila: seguire le tendenze del lusso su TikTok</v>
+        <v>Pitti Uomo contiene i costi e si conferma vetrina per quasi 800 marchi</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.ilsole24ore.com/art/un-posto-prima-fila-seguire-tendenze-lusso-tiktok-AFV73cwD</v>
+        <v>https://www.ilsole24ore.com/art/pitti-uomo-contiene-costi-e-si-conferma-vetrina-quasi-800-marchi-AGol9D7</v>
       </c>
       <c r="C109" t="str">
-        <v>di Barbara Sgarzi</v>
+        <v>di Silvia Pieraccini</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Riscrivere le regole della moda: gli Awards danno il via alla settimana milanese</v>
+        <v>Capri Holdings-Tapestry: salta ufficialmente la fusione tra i big americani. Il nodo Versace</v>
       </c>
       <c r="B110" t="str">
-        <v>https://www.ilsole24ore.com/art/riscrivere-regole-moda-awards-danno-via-settimana-milanese-AF88pAyD</v>
+        <v>https://www.ilsole24ore.com/art/capri-holdings-tapestry-salta-ufficialmente-fusione-i-big-americani-nodo-versace-AGHdol8</v>
       </c>
       <c r="C110" t="str">
-        <v>di Redazione</v>
+        <v>di Redazione Moda</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>«La Fed arriva in ritardo, doveva iniziare a maggio a tagliare i tassi»</v>
+        <v>Lusso in difficoltà: 50 milioni di clienti persi e volumi in calo del -25% in due anni</v>
       </c>
       <c r="B111" t="str">
-        <v>https://www.ilsole24ore.com/art/la-fed-arriva-ritardo-doveva-iniziare-maggio-tagliare-tassi-AFEabHzD</v>
+        <v>https://www.ilsole24ore.com/art/lusso-difficolta-50-milioni-clienti-persi-e-volumi-calo-25percento-due-anni-AGn15A7</v>
       </c>
       <c r="C111" t="str">
-        <v>di Morya Longo</v>
+        <v>di Marta Casadei</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Technogym: salute e intelligenza artificiale per sostenere i margini</v>
+        <v>Qual è la misura della bellezza? Appuntamento con il nuovo numero di HTSI</v>
       </c>
       <c r="B112" t="str">
-        <v>https://www.ilsole24ore.com/art/technogym-salute-e-intelligenza-artificiale-sostenere-margini-AFz3EJpD</v>
+        <v>https://www.ilsole24ore.com/art/qual-e-misura-bellezza-appuntamento-il-nuovo-numero-htsi-AGnNdv6</v>
       </c>
       <c r="C112" t="str">
-        <v>di Vittorio Carlini</v>
+        <v>di Redazione</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Intesa Sanpaolo guida le start up italiane alla conquista della Silicon Valley</v>
+        <v>Una grande esperta del cervello e della mente umana</v>
       </c>
       <c r="B113" t="str">
-        <v>https://www.ilsole24ore.com/art/intesa-sanpaolo-guida-start-up-italiane-conquista-silicon-valley-AFBHOQnD</v>
+        <v>https://www.ilsole24ore.com/art/una-grande-esperta-cervello-e-mente-umana-AGjKpB7</v>
       </c>
       <c r="C113" t="str">
-        <v>di Maximilian Cellino</v>
+        <v>di Monica Piccini</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Commerzbank, Berlino stoppa cessione quote e frena Unicredit: «Sia indipendente»</v>
+        <v>Il ritorno del corsivo viaggia su TikTok: il trend della neo-calligrafia</v>
       </c>
       <c r="B114" t="str">
-        <v>https://www.ilsole24ore.com/art/commerzbank-stop-berlino-cessione-quotesia-indipendente-AFN97X2D</v>
+        <v>https://www.ilsole24ore.com/art/il-ritorno-corsivo-viaggia-tiktok-trend-neo-calligrafia-AG1IrN4</v>
       </c>
       <c r="C114" t="str">
-        <v>di Alberto Annicchiarico</v>
+        <v>di Barbara Sgarzi</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Mercedes-Benz, la Cina provoca un nuovo allarme sugli utili. Titolo a fondo</v>
+        <v>All’origine del tricot: viaggio in Irlanda alla scoperta del neolusso</v>
       </c>
       <c r="B115" t="str">
-        <v>https://www.ilsole24ore.com/art/mercedes-benz-cina-provoca-nuovo-allarme-utili-titolo-fondo-AFazYu1D</v>
+        <v>https://www.ilsole24ore.com/art/all-origine-tricot-viaggio-irlanda-scoperta-neolusso-AGv1783</v>
       </c>
       <c r="C115" t="str">
-        <v>di Alberto Annicchiarico</v>
+        <v>di Kate Finnigan</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Pensione integrativa, novità in arrivo</v>
+        <v>Apple, non solo iPhone: più ricavi da servizi. In Borsa il titolo è caro</v>
       </c>
       <c r="B116" t="str">
-        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AFSIkO2D</v>
+        <v>https://www.ilsole24ore.com/art/apple-non-solo-iphone-piu-ricavi-servizi-borsa-titolo-e-caro-AGtgAOx</v>
       </c>
       <c r="C116" t="str">
-        <v>di Andrea Franceschi e Vitaliano D'Angerio</v>
+        <v>di Vittorio Carlini</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>«La Sicilia ha la sua banca», ok a fusione tra popolari di Ragusa e Sant’Angelo</v>
+        <v>Eni cede una quota dello stoccaggio di CO2: Snam, Vitol e due fondi in pole</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.ilsole24ore.com/art/la-sicilia-ha-sua-banca-ok-fusione-popolari-ragusa-e-sant-angelo-AFdwMS3D</v>
+        <v>https://www.ilsole24ore.com/art/eni-cede-quota-stoccaggio-co2-snam-vitol-e-due-fondi-pole-AGiqlt0</v>
       </c>
       <c r="C117" t="str">
-        <v>di Andrea Franceschi e Vitaliano D'Angerio</v>
+        <v>di Carlo Festa</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Intelligenza Artificiale e Venture Capital: la nuova frontiera degli investimenti</v>
+        <v>Sulle materie prime Trump proietta l’ombra di dazi, sanzioni e frenata del Pil</v>
       </c>
       <c r="B118" t="str">
-        <v>https://www.ilsole24ore.com/art/intelligenza-artificiale-e-venture-capital-nuova-frontiera-investimenti-AFrJSV2D</v>
+        <v>https://www.ilsole24ore.com/art/sulle-materie-prime-trump-proietta-l-ombra-dazi-sanzioni-e-frenata-pil-AG6ErIz</v>
       </c>
       <c r="C118" t="str">
-        <v>di Mara Monti</v>
+        <v>di Sissi Bellomo</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Eredità Agnelli, sequestro da 74,8 milioni per frode fiscale ai fratelli Elkann. La difesa: «Ricostruzioni non condivisibili»</v>
+        <v>Generali, premi e redditività in crescita</v>
       </c>
       <c r="B119" t="str">
-        <v>https://www.ilsole24ore.com/art/eredita-agnelli-sequestro-74-milioni-frode-fiscale-fratelli-elkann-AF2fzT2D</v>
+        <v>https://www.ilsole24ore.com/art/generali-premi-e-redditivita-crescita-AGHfKm9</v>
       </c>
       <c r="C119" t="str">
-        <v>di Ivan Cimmarusti</v>
+        <v>di Stefania Arcudi e Giorgia Colucci</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Affittare un monolocale costa il 45% in più di una stanza</v>
+        <v>Borse, Europa guardinga. A Milano scatta Generali dopo i conti</v>
       </c>
       <c r="B120" t="str">
-        <v>https://www.ilsole24ore.com/art/affittare-monolocale-costa-45percento-piu-una-stanza-AFjfdf0D</v>
+        <v>https://www.ilsole24ore.com/art/borsa-l-asia-parte-mista-giappone-su-asia-giu-AG5TKg9</v>
       </c>
       <c r="C120" t="str">
-        <v>di Laura Cavestri</v>
+        <v>di Stefania Arcudi e Giorgia Colucci</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Relife Torino, lo studentato da oltre 200 stanze con un’anima sociale</v>
+        <v>La Germania scopre il “rischio Paese”</v>
       </c>
       <c r="B121" t="str">
-        <v>https://www.ilsole24ore.com/art/relife-torino-studentato-oltre-200-stanze-un-anima-sociale-AFZuqdzD</v>
+        <v>https://podcast.ilsole24ore.com/channel/podcast/type/podcast/uuid/AGADAB9</v>
       </c>
       <c r="C121" t="str">
-        <v>di Laura Cavestri</v>
+        <v>di Andrea Franceschi e Maximilian Cellino</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Joivy Invest chiude il primo deal per l’affitto breve e medio a Milano</v>
+        <v>I regolatori contro Microsoft: nel mirino pratiche anticoncorrenziali sul cloud</v>
       </c>
       <c r="B122" t="str">
-        <v>https://www.ilsole24ore.com/art/joivy-invest-chiude-primo-deal-l-affitto-breve-e-medio-milano-AFHXgc0D</v>
+        <v>https://www.ilsole24ore.com/art/i-regolatori-contro-microsoft-mirino-pratiche-anticoncorrenziali-cloud-AGgcp28</v>
       </c>
       <c r="C122" t="str">
-        <v>di Laura Cavestri</v>
+        <v>di Biagio Simonetta</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Elezioni Usa, investitori più fiduciosi in Kamala Harris</v>
+        <v>Sport, dal calcio al basket gli investimenti dei fondi continuano a crescere</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.ilsole24ore.com/art/elezioni-usa-investitori-piu-fiduciosi-kamala-harris-AFzhaPqD</v>
+        <v>https://www.ilsole24ore.com/art/sport-calcio-basket-investimenti-fondi-continuano-crescere-AGkNGh8</v>
       </c>
       <c r="C123" t="str">
-        <v>di Marzia Redaelli</v>
+        <v>di Monica D'Ascenzo</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Oro ai massimi. Fino a quando può correre ancora?</v>
+        <v>Sbarca in Italia l’olandese Mollie, per i pagamenti digitali delle imprese</v>
       </c>
       <c r="B124" t="str">
-        <v>https://stream24.ilsole24ore.com/video/finanza-personale/oro-massimi-fino-quando-puo-correre-ancora/AFEFgjwD</v>
+        <v>https://www.ilsole24ore.com/art/sbarca-italia-l-olandese-mollie-i-pagamenti-digitali-imprese-AGj0u28</v>
       </c>
       <c r="C124" t="str">
-        <v>di Vitaliano D'Angerio</v>
+        <v>di Pierangelo Soldavini</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Oro, le stime di analisti e gestori</v>
+        <v>Nel real estate 7 Pmi su 10 cercano finanziamenti (anche alternativi)</v>
       </c>
       <c r="B125" t="str">
-        <v>https://www.ilsole24ore.com/art/oro-e-top-o-correra-ancora-stime-analisti-e-gestori-AFGXdyrD</v>
+        <v>https://www.ilsole24ore.com/art/nel-real-estate-7-pmi-10-cercano-finanziamenti-anche-alternativi-AG1Fbl9</v>
       </c>
       <c r="C125" t="str">
-        <v>di Vitaliano D'Angerio</v>
+        <v>di Laura Cavestri</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Consumi elettrici, ad agosto +8,1%: record spinto dai condizionatori</v>
+        <v>I servizi immobiliari toccano i 40 miliardi (+45% in 10 anni)</v>
       </c>
       <c r="B126" t="str">
-        <v>https://www.ilsole24ore.com/art/consumi-elettrici-ad-agosto-81percento-record-spinto-condizionatori-AFzhaq0D</v>
+        <v>https://www.ilsole24ore.com/art/i-servizi-immobiliari-toccano-40-miliardi-45percento-10-anni-AGJXEG7</v>
       </c>
       <c r="C126" t="str">
-        <v>di Niccolò Gramigni</v>
+        <v>di Laura Cavestri</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Mobilità, Milano prima per l’uso dei mezzi pubblici. Bari punta sulle bici</v>
+        <v>Roma, addio alla vendita della caserma Guido Reni: nel 2025 bando Cdp per partner sviluppatore</v>
       </c>
       <c r="B127" t="str">
-        <v>https://www.ilsole24ore.com/art/mobilita-milano-prima-l-uso-mezzi-pubblici-bari-punta-bici-AFgHZjwD</v>
+        <v>https://ntplusentilocaliedilizia.ilsole24ore.com/art/caserma-guido-reni-addio-vendita-2025-bando-cdp-partner-sviluppatore-AGHB855?cmpid=.com</v>
       </c>
       <c r="C127" t="str">
-        <v>di Niccolò Gramigni</v>
+        <v>di Laura Cavestri</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Crisi climatica, le città in affanno sui target di neutralità carbonica</v>
+        <v>Come cambia la vita degli assicurati con l’IA</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.ilsole24ore.com/art/crisi-climatica-citta-affanno-target-neutralita-carbonica-AF3SpGoD</v>
+        <v>https://stream24.ilsole24ore.com/video/finanza-personale/come-cambia-vita-assicurati-l-ia/AG0HDY4</v>
       </c>
       <c r="C128" t="str">
-        <v>di Elena Comelli</v>
+        <v>di Federica Pezzati</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Dodici start up puntano a rivoluzionare la nautica</v>
+        <v>Anche gli sportivi devono imparare a gestire i risparmi</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.ilsole24ore.com/art/dodici-start-up-puntano-rivoluzionare-nautica-AFqcmR3D</v>
+        <v>https://www.ilsole24ore.com/art/anche-sportivi-devono-imparare-gestire-risparmi-AGSWtW4</v>
       </c>
       <c r="C129" t="str">
-        <v>di Raoul de Forcade</v>
+        <v>di Isabella Della Valle</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Automotive, i sindacati annunciano una mobilitazione unitaria</v>
+        <v>Egm ai raggi X: le essenze di Misitano&amp;Stracuzzi segnano un +48,4% di utili</v>
       </c>
       <c r="B130" t="str">
-        <v>https://www.ilsole24ore.com/art/automotive-sindacati-annunciano-mobilitazione-unitaria-AFkPDW2D</v>
+        <v>https://www.ilsole24ore.com/art/egm-raggi-x-essenze-misitanostracuzzi-segnano-484percento-utili-AGUKat8</v>
       </c>
       <c r="C130" t="str">
-        <v>di Filomena Greco</v>
+        <v>di Valeria Novellini</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Abb al record in Italia con la spinta all’elettrificazione</v>
+        <v>Carcere e lavoro: chi fa formazione ha meno rischi di recidiva</v>
       </c>
       <c r="B131" t="str">
-        <v>https://www.ilsole24ore.com/art/abb-record-italia-la-spinta-all-elettrificazione-AFs97v1D</v>
+        <v>https://www.ilsole24ore.com/art/carcere-e-lavoro-chi-fa-formazione-ha-meno-rischi-recidiva-AGyBS66</v>
       </c>
       <c r="C131" t="str">
-        <v>di Luca Orlando</v>
+        <v>di Giorgio Pogliotti</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Heidelberg Materials, impianto di cattura CO2 per cementeria a Brescia</v>
+        <v>Save the Children: il 13,4% dei bambini da 0 a 3 anni è in povertà assoluta</v>
       </c>
       <c r="B132" t="str">
-        <v>https://www.ilsole24ore.com/art/heidelberg-materials-impianto-cattura-co2-cementeria-brescia-AFylB21D</v>
+        <v>https://www.ilsole24ore.com/art/ART_atlanteinfanzia-AGPhzS7</v>
       </c>
       <c r="C132" t="str">
-        <v>di Sara Deganello</v>
+        <v>di Rosalba Reggio</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Dacia Duster, l’abbiamo provata sulla Transfagarasan: la strada più bella del mondo</v>
+        <v>Shell sconfigge gli ambientalisti: non dovrà tagliare del 45% le emissioni</v>
       </c>
       <c r="B133" t="str">
-        <v>https://www.ilsole24ore.com/art/dacia-duster-l-abbiamo-provata-transfagarasan-strada-piu-bella-mondo-AFv4OB3D</v>
+        <v>https://www.ilsole24ore.com/art/shell-vince-l-appello-giudice-non-decide-tagli-anidride-carbonica-AGZpOu5</v>
       </c>
       <c r="C133" t="str">
-        <v>di Massimo Mambretti</v>
+        <v>di Michele Pignatelli</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Car of the Year 2025, i 50 modelli in gara per l’Auto dell’Anno</v>
+        <v>Agricoltori contro il governo: la filiera della canapa rischia di chiudere</v>
       </c>
       <c r="B134" t="str">
-        <v>https://www.ilsole24ore.com/art/car-of-the-year-2025-50-modelli-gara-l-auto-dell-anno-AFVBv61D</v>
+        <v>https://www.ilsole24ore.com/art/agricoltori-contro-governo-filiera-canapa-rischia-chiudere-AGHhV08</v>
       </c>
       <c r="C134" t="str">
-        <v>di Simonluca Pini</v>
+        <v>di Micaela Cappellini</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Nuova Ducati Multistrada V4 my2025, sempre più globetrotter</v>
+        <v>Risparmi per oltre il 60% con impianti più efficienti</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.ilsole24ore.com/art/nuova-ducati-multistrada-v4-my2025-sempre-piu-globetrotter-AFxGTn1D</v>
+        <v>https://www.ilsole24ore.com/art/risparmi-oltre-60percento-impianti-piu-efficienti-AGCkOZ8</v>
       </c>
       <c r="C135" t="str">
-        <v>di Gianluigi Guiotto</v>
+        <v>di Celestina Dominelli</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Peugeot 3008 Hybrid: la prova su strada del suv francese</v>
+        <v>Women Empowering Women, aperte le iscrizioni all’edizione 2025</v>
       </c>
       <c r="B136" t="str">
-        <v>https://www.ilsole24ore.com/art/peugeot-3008-hybrid-prova-strada-suv-francese-AFoQkf0D</v>
+        <v>https://www.ilsole24ore.com/art/women-empowering-women-aperte-iscrizioni-all-edizione-2025-AGz9eq9</v>
       </c>
       <c r="C136" t="str">
-        <v>di Giulia Paganoni</v>
+        <v>di Celestina Dominelli</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Emergenza in Emilia-Romagna: scuole messe a disposizione per la sicurezza e l’accoglienza della popolazione</v>
+        <v>Dolomiti Superski, investimenti per allungare la stagione sciistica</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.ilsole24ore.com/art/emergenza-emilia-romagna-scuole-messe-disposizione-la-sicurezza-e-l-accoglienza-popolazione-AFTGZ30D</v>
+        <v>https://www.ilsole24ore.com/art/dolomiti-superski-investimenti-allungare-stagione-sciistica-AGz6fz8</v>
       </c>
       <c r="C137" t="str">
-        <v>di Redazione Scuola</v>
+        <v>di Enrico Netti</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Con l’intelligenza artificiale la scuola valorizza l’umano</v>
+        <v>Byd Sealion 7: il test drive del suv elettrico cinese che sfida i marchi europei. Prezzi e caratteristiche</v>
       </c>
       <c r="B138" t="str">
-        <v>https://www.ilsole24ore.com/art/con-l-intelligenza-artificiale-scuola-valorizza-l-umano-AFXpjqxD</v>
+        <v>https://www.ilsole24ore.com/art/byd-sealion-7-test-drive-suv-elettrico-cinese-che-sfida-marchi-europei-prezzi-e-caratteristiche-AGAFzF7</v>
       </c>
       <c r="C138" t="str">
-        <v>di Pierangelo Soldavini</v>
+        <v>di Giulia Paganoni</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Il ministro Urso: parte il liceo del Made in Italy in 30 istituti</v>
+        <v>Jaguar continua la sua strada verso l’elettrico: in arrivo una nuova GT a 4 porte</v>
       </c>
       <c r="B139" t="str">
-        <v>https://www.ilsole24ore.com/art/il-ministro-urso-parte-liceo-made-italy-30-istituti-AFpqz91D</v>
+        <v>https://www.ilsole24ore.com/art/jaguar-continua-sua-strada-l-elettrico-arrivo-nuova-gt-4-porte-AGKggO8</v>
       </c>
       <c r="C139" t="str">
-        <v>di Redazione Scuola</v>
+        <v>di Corrado Canali</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Romagna, alluvionata la scuola di musica «Artistation», stava per riaprire</v>
+        <v>Prime bocciature dell’EuroNCAP per la cinese Byd: sistemi Adas critici sulla Atto 3</v>
       </c>
       <c r="B140" t="str">
-        <v>https://www.ilsole24ore.com/art/romagna-alluvionata-scuola-musica-artistation-stava-riaprire-AF5rBI1D</v>
+        <v>https://www.ilsole24ore.com/art/prime-bocciature-dell-euroncap-la-cinese-byd-ads-critici-atto-3-AGcjvL8</v>
       </c>
       <c r="C140" t="str">
-        <v>di Redazione Scuola</v>
+        <v>di Corrado Canali</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Ad Arborea via al Sardegna Endurance Festival 2024</v>
+        <v>Audi A3 Allstreet Tfsi e, plug-in da quasi 140 chilometri in elettrico</v>
       </c>
       <c r="B141" t="str">
-        <v>https://www.ilsole24ore.com/art/ad-arborea-via-sardegna-endurance-festival-2024-AFmnER3D</v>
+        <v>https://www.ilsole24ore.com/art/audi-a3-allstreet-tfsi-e-plug-in-quasi-140-chilometri-elettrico-AGnEZ05</v>
       </c>
       <c r="C141" t="str">
-        <v>dal nostro inviato Luca Benecchi</v>
+        <v>di Simonluca Pini</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Faenza inondata per tre volte: «Pochi lavori, nessuno ci ascolta»</v>
+        <v>Legal tech e privacy engineer, ecco le nuove professioni dell'Intelligenza artificiale</v>
       </c>
       <c r="B142" t="str">
-        <v>https://www.ilsole24ore.com/art/faenza-inondata-tre-volte-pochi-lavori-nessuno-ci-ascolta-AFEEOD2D</v>
+        <v>https://www.ilsole24ore.com/art/legal-tech-e-privacy-engineer-ecco-nuove-professioni-intelligenza-artificiale-AGK7Ex8</v>
       </c>
       <c r="C142" t="str">
-        <v>dal nostro inviato Luca Benecchi</v>
+        <v>di Redazione Scuola</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Maremoti, uccelli e cetacei: il Ponte sullo Stretto al test di impatto ambientale</v>
+        <v>Scuola, 335 milioni per le palestre, il 72% delle risorse al Mezzogiorno</v>
       </c>
       <c r="B143" t="str">
-        <v>https://www.ilsole24ore.com/art/maremoti-uccelli-e-cetacei-ponte-stretto-test-impatto-ambientale-AF3IF9xD</v>
+        <v>https://www.ilsole24ore.com/art/scuola-335-milioni-le-palestre-72percento-risorse-mezzogiorno-AG4ZBv9</v>
       </c>
       <c r="C143" t="str">
-        <v>di Flavia Landolfi</v>
+        <v>di Redazione Scuola</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Proroga della Cassa integrazione per 2.200 dipendenti ex Alitalia fino a fine anno</v>
+        <v>Professore aggredito vuole lasciare la scuola, la solidarietà di Valditara</v>
       </c>
       <c r="B144" t="str">
-        <v>https://www.ilsole24ore.com/art/proroga-cassa-integrazione-2200-dipendenti-ex-alitalia-fino-fine-anno-AFIqOM2D</v>
+        <v>https://www.ilsole24ore.com/art/professore-aggredito-vuole-lasciare-scuola-solidarieta-valditara-AGYV688</v>
       </c>
       <c r="C144" t="str">
-        <v>di Giorgio Pogliotti</v>
+        <v>di Redazione Scuola</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Le auto più pesanti uccidono più persone di quante ne salvano</v>
+        <v>Scuola, domani sciopero Anief: “Stop alla precarietà”</v>
       </c>
       <c r="B145" t="str">
-        <v>https://www.infodata.ilsole24ore.com/2024/09/22/le-auto-piu-pesanti-uccidono-piu-persone-di-quante-ne-salvano/?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/scuola-domani-sciopero-anief-stop-precarieta-AGkrku8</v>
       </c>
       <c r="C145" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Redazione Scuola</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Ecco Flux 1.0, un modello text-to-image open source rivale di Midjourney. La nostra prova</v>
+        <v>Elezioni in Umbria ed Emilia-Romagna, incognita affluenza: ecco come e quando si vota</v>
       </c>
       <c r="B146" t="str">
-        <v>https://www.infodata.ilsole24ore.com/2024/09/21/ecco-flux-1-0-un-modello-text-to-image-open-source-rivale-di-midjourney-la-nostra-prova/?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/elezioni-umbria-ed-emilia-romagna-incognita-affluenza-ecco-come-e-quando-si-vota-AGGt4l8</v>
       </c>
       <c r="C146" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Andrea Gagliardi</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Inquinamento, l'aria nelle città italiane è tra le peggiori d'Europa. La mappa</v>
+        <v>Sostegno all’autoimpiego, incentivi in ritardo</v>
       </c>
       <c r="B147" t="str">
-        <v>https://www.infodata.ilsole24ore.com/2024/09/21/inquinamento-laria-nelle-citta-italiane-e-tra-le-peggiori-deuropa-la-mappa/?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/sostegno-all-autoimpiego-incentivi-ritardo-AGeQTF7</v>
       </c>
       <c r="C147" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Giorgio Pogliotti e Claudio Tucci</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Leo, per il bonus Befana obiettivo 100 euro netti</v>
+        <v>Il comunicato della Corte Costituzionale</v>
       </c>
       <c r="B148" t="str">
-        <v>https://www.ilsole24ore.com/art/leo-il-bonus-befana-obiettivo-100-euro-netti-AFQSW40D</v>
+        <v>https://www.ilsole24ore.com/art/il-comunicato-corte-costituzionale-AGVwl38</v>
       </c>
       <c r="C148" t="str">
-        <v>di Giuseppe Latour</v>
+        <v>di Giorgio Pogliotti e Claudio Tucci</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Obbligo di polizze catastrofali senza sanzioni efficaci: a rischio la mutualità</v>
+        <v>Proposta FdI, bonus fino a 1500 euro a studente in scuole paritarie. E Valditara apre</v>
       </c>
       <c r="B149" t="str">
-        <v>https://www.ilsole24ore.com/art/obbligo-polizze-catastrofali-senza-sanzioni-efficaci-rischio-mutualita-AF7GJQqD</v>
+        <v>https://www.ilsole24ore.com/art/proposta-fdi-bonus-fino-1500-euro-studente-scuole-paritarie-e-valditara-apre-AG39Fv8</v>
       </c>
       <c r="C149" t="str">
-        <v>di Maurizio Hazan</v>
+        <v>di Redazione Roma</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Corte Ue sui prezzi alberghieri, la parità imposta danneggia la concorrenza</v>
+        <v>Inverno demografico, In calo i nati da genitori stranieri</v>
       </c>
       <c r="B150" t="str">
-        <v>https://www.ilsole24ore.com/art/corte-ue-prezzi-alberghieri-parita-imposta-danneggia-concorrenza-AFLD2y0D</v>
+        <v>https://www.infodata.ilsole24ore.com/2024/11/15/inverno-demografico-in-calo-i-nati-da-genitori-stranieri/?cmpid=.com</v>
       </c>
       <c r="C150" t="str">
-        <v>di Annarita D'Ambrosio</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Mediolanum, la Corte Ue annulla la decisione della Bce sul congelamento della quota Fininvest</v>
+        <v>The budget game, nei panni del premier britannico</v>
       </c>
       <c r="B151" t="str">
-        <v>https://www.ilsole24ore.com/art/corte-ue-annulla-stop-bce-berlusconi-mediolanum-AFeP9b0D</v>
+        <v>https://www.infodata.ilsole24ore.com/2024/11/14/the-budget-game-nei-panni-del-premier-britannico/?cmpid=.com</v>
       </c>
       <c r="C151" t="str">
-        <v>di Maurizio Hazan</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Medio Oriente, il costo troppo alto di una nuova guerra</v>
+        <v>Il danno ambientale prodotto dai super-ricchi sui paesi poveri è tre volte gli aiuti erogati</v>
       </c>
       <c r="B152" t="str">
-        <v>https://24plus.ilsole24ore.com/art/il-costo-troppo-alto-una-nuova-guerra-AFbJQQ2D?s=hpl</v>
+        <v>https://www.infodata.ilsole24ore.com/2024/11/14/il-danno-ambientale-prodotto-dai-super-ricchi-sui-paesi-poveri-e-tre-volte-gli-aiuti-erogati/?cmpid=.com</v>
       </c>
       <c r="C152" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Guerra, ultime notizie. Israele, nuovi raid contro Hezbollah in Libano. 22 morti nel raid su scuola a Gaza. Mosca dice no a vertice pace su Ucraina</v>
+        <v>Libere professioni in ripresa ma ancora sotto i livelli pre Covid</v>
       </c>
       <c r="B153" t="str">
-        <v>https://www.ilsole24ore.com/art/guerra-ultime-notizie-israele-all-onu-faremo-tutto-proteggerci-libano-condannare-tel-aviv-atti-terroristici-AFsKV52D</v>
+        <v>https://www.ilsole24ore.com/art/libere-professioni-ripresa-ma-ancora-sotto-livelli-pre-covid-AGiVVk5</v>
       </c>
       <c r="C153" t="str">
-        <v>dal nostro corrispondente Beda Romano</v>
+        <v>di Maria Carla De Cesari</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Elezioni Usa, Musk fa una mega donazione a Trump: 289mila dollari</v>
+        <v>Suicidio in carcere, risarcimento per l'ingresso senza psicologo</v>
       </c>
       <c r="B154" t="str">
-        <v>https://www.ilsole24ore.com/art/elezioni-usa-musk-fa-mega-donazione-trump-289mila-dollari-AF1sB52D</v>
+        <v>https://www.ilsole24ore.com/art/suicidio-carcere-risarcimento-l-ingresso-senza-psicologo-AGwGkT7</v>
       </c>
       <c r="C154" t="str">
-        <v>dal nostro corrispondente Beda Romano</v>
+        <v>di Patrizia Maciocchi</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Von der Leyen a Kiev annuncia prestito da 35 miliardi</v>
+        <v>La Corte Ue sdogana il prestito con la polizza assicurativa</v>
       </c>
       <c r="B155" t="str">
-        <v>https://www.ilsole24ore.com/art/von-der-leyen-kiev-annuncia-prestito-35-miliardi-AFcm5d2D</v>
+        <v>https://www.ilsole24ore.com/art/la-corte-ue-sdogana-prestito-la-polizza-assicurativa-AGbAFR8</v>
       </c>
       <c r="C155" t="str">
-        <v>dal nostro corrispondente Beda Romano</v>
+        <v>di Patrizia Maciocchi</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Collana Sellerio - I libri di Andrea Camilleri</v>
+        <v>Abuso d'ufficio, l'abolizione salva il comandante che evita i controlli ai commercianti</v>
       </c>
       <c r="B156" t="str">
-        <v>https://ecommerce.ilsole24ore.com/shopping24/collana-sellerio-i-libri-di-andrea-camilleri.html?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/abuso-d-ufficio-abolizione-salva-comandante-che-evita-controlli-commercianti-AG3vR65</v>
       </c>
       <c r="C156" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Patrizia Maciocchi</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Questo non è lavoro</v>
+        <v>New York Times: «Musk lunedì ha incontrato l’ambasciatore iraniano all’Onu»</v>
       </c>
       <c r="B157" t="str">
-        <v>https://www.amazon.it/Questo-lavoro-dannato-strategie-combatterlo/dp/B0CZZ5HQ3R/ref=sr_1_fkmr2_2?__mk_it_IT=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=FP8OWVNMPKDQ&amp;dib=eyJ2IjoiMSJ9.SlVJc6d2cngqp01O7LUrnIHkn3h2oUlBjBjnOn2ElSoGqzoThxsGJpJV4GfJIT25PKFl9Fjl6ZBeqgwWUyCZKi8rLENxqp_QLyj4H-OpiUs.Kf4QM92ND4vtKW4Q691d-uMN-hL5ShlBqA7ECx3WVRc&amp;dib_tag=se&amp;keywords=il+sole+24+ore&amp;m=A11IL2PNWYJU7H&amp;qid=1725982214&amp;refinements=p_n_feature_browse-bin:15422327031%2Cp_n_condition-type:15137402031%2Cp_n_binding_browse-bin:509802031%2Cp_6:A11IL2PNWYJU7H&amp;rnid=490203031&amp;s=books&amp;sprefix=il+sole+24+ore%2Cstripbooks%2C104&amp;sr=1-2-fkmr2?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/new-york-times-musk-lunedi-ha-incontrato-l-ambasciatore-iraniano-all-onu-AGzRbn9</v>
       </c>
       <c r="C157" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Collana Miti e leggende</v>
+        <v>Deforestazione: Il Ppe vota con la destra, maggioranza Ursula sempre più a rischio</v>
       </c>
       <c r="B158" t="str">
-        <v>https://ecommerce.ilsole24ore.com/shopping24/collana-miti-e-leggende.html?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/deforestazione-ppe-vota-la-destra-maggioranza-ursula-sempre-piu-rischio-AGbiX28</v>
       </c>
       <c r="C158" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Sanatoria credito d’imposta ricerca e sviluppo</v>
+        <v>Francia, il budget verso un’approvazione «senza voto»</v>
       </c>
       <c r="B159" t="str">
-        <v>https://ecommerce.ilsole24ore.com/shopping24/sanatoria-credito-dimposta-ricerca-e-sviluppo.html?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/francia-budget-un-approvazione-senza-voto-AG5gU78</v>
       </c>
       <c r="C159" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Riccardo Sorrentino</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Casa - acquisto e vendita</v>
+        <v>Multa Ue da quasi 800 milioni per il Marketplace di Facebook. Meta: ci appelleremo, nessun danno ai consumatori</v>
       </c>
       <c r="B160" t="str">
-        <v>https://ecommerce.ilsole24ore.com/shopping24/casa-acquisto-e-vendita-43.html?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/multa-ue-798-milioni-il-marketplace-facebook-AGUIgd8</v>
       </c>
       <c r="C160" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>REDDITI - Società di persone, società di capitali</v>
+        <v>Agenda de Il Sole 24 Ore 2025</v>
       </c>
       <c r="B161" t="str">
-        <v>https://ecommerce.ilsole24ore.com/shopping24/redditi-societ-di-persone-societ-di-capitali.html?cmpid=.com</v>
+        <v>https://ecommerce.ilsole24ore.com/shopping24/agenda-de-il-sole24-ore-2025.html?cmpid=.com</v>
       </c>
       <c r="C161" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Champagne, anche i ricchi piangono con i prezzi alle stelle. Meglio gli italiani?</v>
+        <v>HTSI Best Luxury Start-Up Award</v>
       </c>
       <c r="B162" t="str">
-        <v>https://www.ilsole24ore.com/art/champagne-anche-ricchi-piangono-i-prezzi-stelle-meglio-italiani-AFNLuG1D</v>
+        <v>https://htsi-award.ilsole24ore.com/?cmpid=.com</v>
       </c>
       <c r="C162" t="str">
-        <v>di Cristiana Lauro</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Gavi, il 92% va all’estero. E ora i produttori vogliono accrescerne il valore anche in Italia</v>
+        <v>Algoritmo criminale</v>
       </c>
       <c r="B163" t="str">
-        <v>https://www.ilsole24ore.com/art/gavi-92percento-va-all-estero-e-ora-produttori-vogliono-accrescerne-valore-anche-italia-AFzuqv1D</v>
+        <v>https://www.amazon.it/Algoritmo-criminale-mafia-riscrivono-regole/dp/B0D64TSY19/?cmpid=.com</v>
       </c>
       <c r="C163" t="str">
-        <v>di Emiliano Sgambato</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Il Pecorino Romano vale 600 milioni di euro, produzione in crescita del 7%</v>
+        <v>Il revisore legale</v>
       </c>
       <c r="B164" t="str">
-        <v>https://www.ilsole24ore.com/art/il-pecorino-romano-vale-600-milioni-euro-produzione-crescita-7percento-AFleq30D</v>
+        <v>https://ecommerce.ilsole24ore.com/shopping24/il-revisore-legale-ottobre-2024.html?cmpid=.com</v>
       </c>
       <c r="C164" t="str">
-        <v>di Davide Madeddu</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Vino con poco alcol, l’addio al monopolio in Finlandia è una buona notizia per l’Italia</v>
+        <v>Appalti e rapporti di lavoro</v>
       </c>
       <c r="B165" t="str">
-        <v>https://www.ilsole24ore.com/art/vino-bassa-gradazione-addio-monopolio-finlandia-AFIXch0D</v>
+        <v>https://ecommerce.ilsole24ore.com/shopping24/appalti-e-rapporti-di-lavoro.html?cmpid=.com</v>
       </c>
       <c r="C165" t="str">
-        <v>di Giorgio dell'Orefice</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>L'Alzheimer fa paura? Ecco i sintomi e i consigli sullo stile di vita per prevenirlo</v>
+        <v>Riforma fiscale 11 - Concordato preventivo biennale</v>
       </c>
       <c r="B166" t="str">
-        <v>https://www.ilsole24ore.com/art/l-alzheimer-fa-paura-ecco-sintomi-e-consigli-stile-vita-prevenirlo-AFJza50D</v>
+        <v>https://ecommerce.ilsole24ore.com/shopping24/riforma-fiscale-11-concordato-preventivo-biennale.html?cmpid=.com</v>
       </c>
       <c r="C166" t="str">
-        <v>di Marzio Bartoloni</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Bronchiolite, la cura salvavita per neonati “solo per alcune Regioni”. Poi la mezza retromarcia</v>
+        <v>Agrofarma: l’uso di sostanze chimiche nei campi è diminuito del 14% in 10 anni</v>
       </c>
       <c r="B167" t="str">
-        <v>https://www.ilsole24ore.com/art/cura-salva-neonati-solo-regioni-conti-regola-poi-mezza-retromarcia-AFfhIv0D</v>
+        <v>https://www.ilsole24ore.com/art/agrofarma-l-uso-sostanze-chimiche-campi-e-diminuito-14percento-10-anni-AGOx1f8</v>
       </c>
       <c r="C167" t="str">
-        <v>di Marzio Bartoloni</v>
+        <v>di Giorgio dell'Orefice</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Covid, vaccino gratis per tutti ma raccomandato a over 60 fragili e donne in gravidanza</v>
+        <v>Plant based, 7 italiani su 10 comprano prodotti alternativi alla carne e al latte</v>
       </c>
       <c r="B168" t="str">
-        <v>https://www.ilsole24ore.com/art/covid-vaccino-gratis-tutti-ma-raccomandato-over-60-fragili-e-donne-gravidanza-AFpyBJyD</v>
+        <v>https://www.ilsole24ore.com/art/plant-based-7-italiani-10-comprano-prodotti-alternativi-carne-e-latte-AGPzXS8</v>
       </c>
       <c r="C168" t="str">
-        <v>di Marzio Bartoloni</v>
+        <v>di Emiliano Sgambato</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Dal Gemelli al Monzino e all’Ieo di Milano: ecco gli ospedali al top per specialità</v>
+        <v>Rum, ecco perché le bottiglie più pregiate possono essere un investimento</v>
       </c>
       <c r="B169" t="str">
-        <v>https://www.ilsole24ore.com/art/dal-gemelli-monzino-e-ieo-milano-ecco-ospedali-top-specialita-AF0DR4yD</v>
+        <v>https://www.ilsole24ore.com/art/rum-ecco-perche-bottiglie-piu-pregiate-possono-essere-investimento-AGtIxw7</v>
       </c>
       <c r="C169" t="str">
-        <v>di Marzio Bartoloni</v>
+        <v>di Maurizio Maestrelli</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Le imprese, come gli imprenditori, invecchiano</v>
+        <v>Banane Chiquita, il bollino blu non può essere marchio protetto: la sentenza della Corte Ue</v>
       </c>
       <c r="B170" t="str">
-        <v>https://www.ilsole24ore.com/art/le-imprese-come-imprenditori-invecchiano-AF8ICW2D</v>
+        <v>https://www.ilsole24ore.com/art/banane-chiquita-bollino-blu-non-puo-essere-marchio-protetto-sentenza-corte-ue-AGSeC06</v>
       </c>
       <c r="C170" t="str">
-        <v>di Bernardo Bertoldi</v>
+        <v>di Silvia Marzialetti</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Intelligenza artificiale, etica e conflitti</v>
+        <v>Retromarcia dell'Asl di Verona: il caso di malaria non è autoctono, ma importato</v>
       </c>
       <c r="B171" t="str">
-        <v>https://www.ilsole24ore.com/art/intelligenza-artificiale-etica-e-conflitti-AFsKa92D</v>
+        <v>https://www.ilsole24ore.com/art/malaria-caso-autoctono-verona-subito-indagini-capire-se-zanzara-e-locale-AGB71Fz</v>
       </c>
       <c r="C171" t="str">
-        <v>di Alessandro Curioni*</v>
+        <v>di Marzio Bartoloni</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Una nuova visione per vivere in sicurezza, nel lavoro,  nella vita</v>
+        <v>Gli stipendi dei medici italiani tra i più bassi in Europa: sciopero confermato il 20 novembre</v>
       </c>
       <c r="B172" t="str">
-        <v>https://www.ilsole24ore.com/art/una-nuova-visione-vivere-sicurezza-lavoro-nella-vita-AF9JtA3D</v>
+        <v>https://www.ilsole24ore.com/art/gli-stipendi-medici-italiani-i-piu-bassi-europa-sciopero-confermato-20-novembre-AGtDJr4</v>
       </c>
       <c r="C172" t="str">
-        <v>di Franco Amicucci*</v>
+        <v>di Marzio Bartoloni</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Quel lontano traguardo di una energia gratis e pulita</v>
+        <v>Sanità, ecco i numeri shock: dai 40mila medici mancanti a chi rinuncia a curarsi</v>
       </c>
       <c r="B173" t="str">
-        <v>https://www.ilsole24ore.com/art/quel-lontano-traguardo-una-energia-gratis-e-pulita-AF0ksk0D</v>
+        <v>https://www.ilsole24ore.com/art/dai-40mila-medici-mancanti-italiani-che-rinunciano-curarsi-ecco-numeri-shock-sanita-AG6PSVw</v>
       </c>
       <c r="C173" t="str">
-        <v>di Davide Tabarelli</v>
+        <v>di Marzio Bartoloni</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Le auto più pesanti uccidono più persone di quante ne salvano</v>
+        <v>Dall'India al Sud America: è caccia agli infermieri, uno su dieci viene dall'estero</v>
       </c>
       <c r="B174" t="str">
-        <v>https://www.infodata.ilsole24ore.com/2024/09/22/le-auto-piu-pesanti-uccidono-piu-persone-di-quante-ne-salvano/</v>
+        <v>https://www.ilsole24ore.com/art/dall-india-sud-america-e-caccia-infermieri-su-dieci-viene-estero-AGf6mCr</v>
       </c>
       <c r="C174" t="str">
-        <v>di Infodata</v>
+        <v>di Marzio Bartoloni</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>La ripresa è dura? Cinque letture per affrontare l'autunno</v>
+        <v>Colletti a venti anni dalla scomparsa tra marxismo e Kant</v>
       </c>
       <c r="B175" t="str">
-        <v>https://alleyoop.ilsole24ore.com/2024/09/22/ripresa-dura-cinque-letture-affrontare-autunno/</v>
+        <v>https://www.ilsole24ore.com/art/colletti-venti-anni-scomparsa-marxismo-e-kant-AGe7Vgv</v>
       </c>
       <c r="C175" t="str">
-        <v>di Francesca Giannetto</v>
+        <v>di Luigi Caranti</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Private credit: i pro e i contro per le piccole e medie imprese in Italia</v>
+        <v>Il proprietario dell’azienda di famiglia: ut sementem feceris ita metes</v>
       </c>
       <c r="B176" t="str">
-        <v>https://www.econopoly.ilsole24ore.com/2024/09/19/private-credit-italia/</v>
+        <v>https://www.ilsole24ore.com/art/il-proprietario-dell-azienda-famiglia-ut-sementem-feceris-ita-metes-AGgQk9r</v>
       </c>
       <c r="C176" t="str">
-        <v>di Econopoly</v>
+        <v>di Bernardo Bertoldi*</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>La sfida dell’agrivoltaico</v>
+        <v>I giornali Usa hanno paura della vendetta di Donald Trump</v>
       </c>
       <c r="B177" t="str">
-        <v>https://www.ilsole24ore.com/dossier/20240913_agrivoltaico-AFB8lxrD</v>
+        <v>https://24plus.ilsole24ore.com/art/i-giornali-usa-hanno-paura-vendetta-donald-trump-AGoKMeo?s=hpl</v>
       </c>
       <c r="C177" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Maria Latella</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>I migliori posti di lavoro per diversità e inclusione</v>
+        <v>Parità di genere, inclusione, modernità: la sfida della rettrice della Statale di Milano</v>
       </c>
       <c r="B178" t="str">
-        <v>https://www.ilsole24ore.com/dossier/20240702_best-workplaces-for-diversity-inclusion-AFHz4sPC</v>
+        <v>https://www.ilsole24ore.com/art/parita-genere-inclusione-modernita-sfida-rettrice-statale-milano-AGklN9j</v>
       </c>
       <c r="C178" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Eliana Di Caro</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>La transizione verde tra energia, trasporti e ripristino della biodiversità</v>
+        <v>Inverno demografico, In calo i nati da genitori stranieri</v>
       </c>
       <c r="B179" t="str">
-        <v>https://www.ilsole24ore.com/dossier/20240709_sviluppo_sostenibile-AFXGZNeC</v>
+        <v>https://www.infodata.ilsole24ore.com/2024/11/15/inverno-demografico-in-calo-i-nati-da-genitori-stranieri/</v>
       </c>
       <c r="C179" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Enrico Calabrese</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Stelle del Sud 2025</v>
+        <v>Violenza sulle donne, il femminicidio di Aurora e la rete che non c'è</v>
       </c>
       <c r="B180" t="str">
-        <v>https://www.ilsole24ore.com/dossier/20240320_stelle_del_sud-AFUKg13C</v>
+        <v>https://alleyoop.ilsole24ore.com/2024/11/15/violenza-sulle-donne-il-femminicidio-di-aurora-e-la-rete-che-non-ce/</v>
       </c>
       <c r="C180" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Chiara Di Cristofaro e Livia Zancaner</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>“Vermiglio”, un emozionante dramma famigliare ai tempi della Seconda guerra mondiale</v>
+        <v>Le scommesse elettorali sono davvero i sondaggi del terzo Millennio?</v>
       </c>
       <c r="B181" t="str">
-        <v>https://www.ilsole24ore.com/art/film-uscita-cosa-vedere-cinema-fine-settimana-AFCWHo1D</v>
+        <v>https://www.econopoly.ilsole24ore.com/2024/11/15/scommesse-elettorali-sondaggi-terzo-millennio/</v>
       </c>
       <c r="C181" t="str">
-        <v>di Andrea Chimento</v>
+        <v>di Econopoly</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Christoph Büchel e la svalutazione inesorabile di ogni modello sociale</v>
+        <v>Leader della crescita 2025</v>
       </c>
       <c r="B182" t="str">
-        <v>https://www.ilsole24ore.com/art/christoph-buchel-e-svalutazione-inesorabile-ogni-modello-sociale-AFR5ymwD</v>
+        <v>https://www.ilsole24ore.com/dossier/20241112_leader_della_crescita_2025-AGcr9O0</v>
       </c>
       <c r="C182" t="str">
-        <v>di Matteo Bianchi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>La Chola Poblete in mostra al Mudec</v>
+        <v>Le frontiere della cybersecurity e la sfida dell’Ai</v>
       </c>
       <c r="B183" t="str">
-        <v>https://www.ilsole24ore.com/art/la-chola-poblete-mostra-mudec-AFOpQSsD</v>
+        <v>https://www.ilsole24ore.com/dossier/20241113_frontiere_cybersecurity_ai-AGVLNm5</v>
       </c>
       <c r="C183" t="str">
-        <v>di Stefano Biolchini</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Il moto ondoso di Jamie Xx</v>
+        <v>Le sfide della transizione green</v>
       </c>
       <c r="B184" t="str">
-        <v>https://www.ilsole24ore.com/art/il-moto-ondoso-jamie-xx-AFiDVOqD</v>
+        <v>https://www.ilsole24ore.com/dossier/20241105_sviluppo_sostenibile-AGi0lxq</v>
       </c>
       <c r="C184" t="str">
-        <v>di Fernando Rennis</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Le applicazioni di intelligenza artificiale generativa più usate al mondo</v>
+        <v>Alla ricerca dei Leader della sostenibilità: aperte le iscrizioni per il bando 2025</v>
       </c>
       <c r="B185" t="str">
-        <v>https://www.ilsole24ore.com/art/le-applicazioni-intelligenza-artificiale-generativa-piu-usate-mondo-AFHIzp0D</v>
+        <v>https://www.ilsole24ore.com/dossier/20240516_leader-sosenibilita-AFS1v9zD</v>
       </c>
       <c r="C185" t="str">
-        <v>di Marco Trabucchi</v>
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Salesforce trasforma Slack in un sistema operativi per professionisti</v>
+        <v>Davide Monteleone e le responsabilità di un occidente che vorrebbe essere green</v>
       </c>
       <c r="B186" t="str">
-        <v>https://www.ilsole24ore.com/art/salesforce-trasforma-slack-un-sistema-operativi-professionisti-AFLMXazD</v>
+        <v>https://www.ilsole24ore.com/art/davide-monteleone-e-responsabilita-un-occidente-che-vorrebbe-essere-green-AGlWxb3</v>
       </c>
       <c r="C186" t="str">
-        <v>di Jader Liberatore</v>
+        <v>di Stefano Biolchini</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Instagram annuncia i nuovi profili dedicati ai teenager</v>
+        <v>Robert Longo: i suoi disegni “scultorei” all’Albertina</v>
       </c>
       <c r="B187" t="str">
-        <v>https://www.ilsole24ore.com/art/instagram-annuncia-nuovi-profili-dedicati-teenager-AFWdOXyD</v>
+        <v>https://www.ilsole24ore.com/art/robert-longo-suoi-disegni-scultorei-all-albertina-AGO4VSx</v>
       </c>
       <c r="C187" t="str">
-        <v>di Jader Liberatore</v>
+        <v>di Flavia Foradini</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Arriva la “seconda onda” di Copilot: ecco come cambia la produttività con la Gen AI di Microsoft</v>
+        <v>Con il naso all’insù, fra stelle e miti</v>
       </c>
       <c r="B188" t="str">
-        <v>https://www.ilsole24ore.com/art/arriva-seconda-onda-copilot-ecco-come-cambia-produttivita-la-gen-di-microsoft-AFGmekxD</v>
+        <v>https://www.ilsole24ore.com/art/con-naso-all-insu-stelle-e-miti-AF6qCtAD</v>
       </c>
       <c r="C188" t="str">
-        <v>di Gianni Rusconi</v>
+        <v>di Maria Luisa Colledani</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>L’impatto dell’intelligenza artificiale sulle imprese: le sfide per i manager e il sistema formativo</v>
+        <v>Il romanzo del fiume e della foresta</v>
       </c>
       <c r="B189" t="str">
-        <v>https://www.ilsole24ore.com/art/l-impatto-dell-intelligenza-artificiale-imprese-sfide-i-manager-e-sistema-formativo-AFVbwkgD</v>
+        <v>https://www.ilsole24ore.com/art/il-romanzo-fiume-e-foresta-AGpPqax</v>
       </c>
       <c r="C189" t="str">
-        <v>di Paolo Neirotti*</v>
+        <v>di Lara Ricci</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Agrigento Capitale della Cultura 2025 riporterà a Sciacca il Melqart</v>
+        <v>Musica, Dream Track è in fase di test e promette di essere una rivoluzione</v>
       </c>
       <c r="B190" t="str">
-        <v>https://www.ilsole24ore.com/art/agrigento-capitale-cultura-2025-riporteremo-sciacca-melqart-AFmtUZ2D</v>
+        <v>https://www.ilsole24ore.com/art/musica-dream-track-e-fase-test-e-promette-essere-rivoluzione-AGv5Sk9</v>
       </c>
       <c r="C190" t="str">
-        <v>di Giuditta Giardini</v>
+        <v>di L.Tre.</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Sogni olimpici e paralimpici: insieme si può</v>
+        <v>ChatGPT è l’intelligenza artificiale generativa più utilizzata al mondo?</v>
       </c>
       <c r="B191" t="str">
-        <v>https://www.ilsole24ore.com/art/sogni-olimpici-e-paralimpici-insieme-si-puo-AF7F7J1D</v>
+        <v>https://www.ilsole24ore.com/art/chatgpt-e-l-intelligenza-artificiale-generativa-piu-utilizzata-mondo-AGzVYC7</v>
       </c>
       <c r="C191" t="str">
-        <v>di Maria Luisa Colledani</v>
+        <v>di Marco Trabucchi</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Tutta la bellezza di Udine tra angeli, rogge, palazzi</v>
+        <v>Start up e tecnologie in gioco nella realtà spaziale ibrida</v>
       </c>
       <c r="B192" t="str">
-        <v>https://www.ilsole24ore.com/art/tutta-bellezza-udine-angeli-rogge-palazzi-AF6vr81D</v>
+        <v>https://www.ilsole24ore.com/art/start-up-e-tecnologie-gioco-realta-spaziale-ibrida-AGBwCx5</v>
       </c>
       <c r="C192" t="str">
-        <v>di Luca Bergamin</v>
+        <v>di Giampaolo Colletti</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Militarismo senza fine</v>
+        <v>X è una «piattaforma tossica»: ecco perché utenti e giornali fuggono dal social di Musk</v>
       </c>
       <c r="B193" t="str">
-        <v>https://ugotramballi.blog.ilsole24ore.com/2024/09/22/militarismo-senza-fine/</v>
+        <v>https://www.ilsole24ore.com/art/x-e-piattaforma-tossica-ecco-perche-utenti-e-giornali-fuggono-social-musk-AGTS1I8</v>
       </c>
       <c r="C193" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Alessia Tripodi</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Eugenia:"Dal cinema al travel design, la creatrice di viaggi ispirati a serie tv e film con Agape Viaggi"</v>
+        <v>Come organizzare un evento in una location esclusiva (ma senza danneggiarla)</v>
       </c>
       <c r="B194" t="str">
-        <v>https://gloriachiocci.nova100.ilsole24ore.com/2024/09/22/agape-viaggi/</v>
+        <v>https://www.ilsole24ore.com/art/come-organizzare-evento-una-location-esclusiva-ma-senza-danneggiarla-AGjczX4</v>
       </c>
       <c r="C194" t="str">
-        <v>di Gloria Chiocci</v>
+        <v>di Valentina Gentile*</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Napoli, tartaruga lanciata dal belvedere e uccisa: "Crudeltà"</v>
+        <v>Gli Osservatori della Cultura, un progetto mai compiuto</v>
       </c>
       <c r="B195" t="str">
-        <v>https://guidominciotti.blog.ilsole24ore.com/2024/09/21/napoli-tartaruga-lanciata-per-gioco-dal-belvedere-e-uccisa-crudelta/</v>
+        <v>https://www.ilsole24ore.com/art/gli-osservatori-cultura-progetto-mai-compiuto-AGC10K0</v>
       </c>
       <c r="C195" t="str">
-        <v>di Guido Minciotti</v>
+        <v>di Roberta Capozucca</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Pensioni24</v>
+        <v>Dalla Sicilia del Dopoguerra all’ebike, le bici Lombardo continuano a correre in Europa</v>
       </c>
       <c r="B196" t="str">
-        <v>https://areautente.ilsole24ore.com/#newsletter?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/dalla-sicilia-dopoguerra-all-ebike-bici-lombardo-continuano-correre-europa-AGEO6k8</v>
       </c>
       <c r="C196" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Pierangelo Soldavini</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Abbonamento + Archivio storico</v>
+        <v>Inverno a Lanzarote armonia di arte e natura</v>
       </c>
       <c r="B197" t="str">
-        <v>https://abbonamenti.ilsole24ore.com/detailProduct?sku=QUOTARCHDOM?cmpid=.com</v>
+        <v>https://www.ilsole24ore.com/art/inverno-lanzarote-armonia-arte-e-natura-AGX5Ui8</v>
       </c>
       <c r="C197" t="str">
-        <v>di Ugo Tramballi</v>
+        <v>di Erika Scafuro</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
+        <v>Caccia, la Ue bacchetta l'Italia: ignorate norme sui proiettili di piombo</v>
+      </c>
+      <c r="B198" t="str">
+        <v>https://guidominciotti.blog.ilsole24ore.com/2024/11/15/caccia-la-ue-bacchetta-litalia-ignorate-norme-sui-proiettili-di-piombo/</v>
+      </c>
+      <c r="C198" t="str">
+        <v>di Guido Minciotti</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Il cioccolato tra cultura, comunicazione e business</v>
+      </c>
+      <c r="B199" t="str">
+        <v>https://gabrielecaramellino.nova100.ilsole24ore.com/2024/11/14/il-cioccolato-tra-cultura-comunicazione-e-business/</v>
+      </c>
+      <c r="C199" t="str">
+        <v>di Gabriele Caramellino</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Ferrari e IBM: collaborazione in vigore dal 2025</v>
+      </c>
+      <c r="B200" t="str">
+        <v>https://gabrielecaramellino.nova100.ilsole24ore.com/2024/11/14/ferrari-e-ibm-collaborazione-in-vigore-dal-2025/</v>
+      </c>
+      <c r="C200" t="str">
+        <v>di Gabriele Caramellino</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Pensioni24</v>
+      </c>
+      <c r="B201" t="str">
+        <v>https://areautente.ilsole24ore.com/#newsletter?cmpid=.com</v>
+      </c>
+      <c r="C201" t="str">
+        <v>dal nostro corrispondente Beda Romano</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Abbonamento + Archivio storico</v>
+      </c>
+      <c r="B202" t="str">
+        <v>https://abbonamenti.ilsole24ore.com/detailProduct?sku=QUOTARCHDOM?cmpid=.com</v>
+      </c>
+      <c r="C202" t="str">
+        <v>dal nostro corrispondente Beda Romano</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
         <v>Sconti ePRICE, IBS ecc.</v>
       </c>
-      <c r="B198" t="str">
+      <c r="B203" t="str">
         <v>https://codicisconto.ilsole24ore.com/?cmpid=.com</v>
       </c>
-      <c r="C198" t="str">
-        <v>di Ugo Tramballi</v>
+      <c r="C203" t="str">
+        <v>dal nostro corrispondente Beda Romano</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C198"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C203"/>
   </ignoredErrors>
 </worksheet>
 </file>